--- a/decarbonize/Electricity Rate Plan.xlsx
+++ b/decarbonize/Electricity Rate Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pragn\OneDrive\Desktop\CarbonSustain\ai-apps\decarbonize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC284D-1FF9-4C9C-B91E-00B0F1883D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1B214-8B9B-45DC-A86C-2522431AD87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PG&amp;E Service Area" sheetId="4" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -104,466 +102,988 @@
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3C07F0A3-DF62-46F6-8547-DFF5A98A690D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B6" authorId="1" shapeId="0" xr:uid="{CA4D9E23-F3B0-4194-A457-29046473266C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B16" authorId="2" shapeId="0" xr:uid="{6DF5CF42-7CBB-4702-BD78-1230E4093DA0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B20" authorId="3" shapeId="0" xr:uid="{3062EC0E-1140-4868-AA05-5147DDC0CF70}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B30" authorId="4" shapeId="0" xr:uid="{9F45028A-33E6-4817-8BC2-D2A6D883770F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B34" authorId="5" shapeId="0" xr:uid="{96320076-3554-45AE-9452-A09E9A30DED4}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B44" authorId="6" shapeId="0" xr:uid="{E4A8B1B3-D267-4D84-AEB4-294AB5D1CA85}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B48" authorId="7" shapeId="0" xr:uid="{5A52B0C5-3651-4896-8F86-D0B6D97812BB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B53" authorId="8" shapeId="0" xr:uid="{08370801-43E8-4961-A246-91C76D98A603}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B57" authorId="9" shapeId="0" xr:uid="{D7CDAD07-D013-4161-BF91-37EAF63D19C6}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B62" authorId="10" shapeId="0" xr:uid="{5BB65E25-3A57-4708-821D-13C8389A8D95}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B66" authorId="11" shapeId="0" xr:uid="{038E607F-7A92-47BA-8458-BF88873C7AEE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B71" authorId="12" shapeId="0" xr:uid="{950EF5D6-3F5F-47AD-9E75-523ACA370DA6}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B75" authorId="13" shapeId="0" xr:uid="{82A43F3F-DD92-4081-AFF1-BC21A8545F44}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B83" authorId="14" shapeId="0" xr:uid="{F9CDF76C-DE7D-4795-AE4D-A8FAE1780956}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B87" authorId="15" shapeId="0" xr:uid="{0D8F8ADB-B24A-4153-9291-EB55F0553182}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B95" authorId="16" shapeId="0" xr:uid="{D305CEA4-5F4D-49A8-8EC9-771F7EB2C944}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B99" authorId="17" shapeId="0" xr:uid="{D989F7F8-5767-40E4-8E8C-47E61C0A1933}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B107" authorId="18" shapeId="0" xr:uid="{45080547-5095-43D4-B295-305ACDA8534B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B111" authorId="19" shapeId="0" xr:uid="{B86A322A-89C3-4075-99C5-95275E92D73D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B121" authorId="20" shapeId="0" xr:uid="{FCDF5A09-238B-4E0A-937C-557D6BBA7A44}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B125" authorId="21" shapeId="0" xr:uid="{4EECBF0D-D7DA-417B-B1FD-0790B3B3E053}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B135" authorId="22" shapeId="0" xr:uid="{83334F46-A64C-41F7-B2AE-AF120317D0DC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B139" authorId="23" shapeId="0" xr:uid="{B9A16253-FDE5-4757-88A0-04E70A6FF740}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B149" authorId="24" shapeId="0" xr:uid="{1EA70A81-EF85-4872-8AFA-22C2E2554AA1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B155" authorId="25" shapeId="0" xr:uid="{B2C4D313-A6C2-4F07-ADF1-77B9E2519EE0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B161" authorId="26" shapeId="0" xr:uid="{438FFB4C-C8A1-4C6D-96B7-C6D16FF6EE0A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B167" authorId="27" shapeId="0" xr:uid="{F817E75D-03A5-497F-BB6A-C568A744C254}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B171" authorId="28" shapeId="0" xr:uid="{1036C263-2E31-4168-B0EA-416EA943FFB7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B179" authorId="29" shapeId="0" xr:uid="{5C1D6547-0A3C-457E-B640-53E8E586F416}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B183" authorId="30" shapeId="0" xr:uid="{4B344DA6-0CED-41D0-9DDB-FE9D92397385}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B191" authorId="31" shapeId="0" xr:uid="{83D9495A-0EAF-4269-98E1-FC1FCC2406F4}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B195" authorId="32" shapeId="0" xr:uid="{05DA88B4-C534-4A88-9C7F-4854DA8A56BD}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B203" authorId="33" shapeId="0" xr:uid="{4CD3EFE9-D2D3-4152-95E4-7F7B91F81005}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B207" authorId="34" shapeId="0" xr:uid="{74D015BA-3689-4F8E-92CA-00BBC890A8FE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B217" authorId="35" shapeId="0" xr:uid="{3DF7EAD0-B6F8-4A2F-A942-FAD4F637FC6A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B221" authorId="36" shapeId="0" xr:uid="{438B2039-2B3B-44A9-8A29-3A1117A15052}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B239" authorId="37" shapeId="0" xr:uid="{FFE78D49-B698-4B5A-87DF-13626D6B33AA}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B250" authorId="38" shapeId="0" xr:uid="{12E13E66-5A3B-42D9-85DE-A8196B55C0B8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B261" authorId="39" shapeId="0" xr:uid="{DC26A99A-69D3-44CF-9972-33BF8743C2C2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B272" authorId="40" shapeId="0" xr:uid="{816AE093-A821-4BC3-977F-BFEA3FFB5563}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B283" authorId="41" shapeId="0" xr:uid="{BA24880A-3A5C-4DF1-BBD1-851C5154B722}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B294" authorId="42" shapeId="0" xr:uid="{127EEB2F-B6F0-4BF4-82CE-FAC7DF3185B3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B305" authorId="43" shapeId="0" xr:uid="{61A5FBE0-2ECA-4BE2-A22C-0EA9964A9826}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B309" authorId="44" shapeId="0" xr:uid="{5B53D3CB-21C6-4124-B76F-380F805B628F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B315" authorId="45" shapeId="0" xr:uid="{A70DDF55-FDC6-4590-88F7-D3CE3ED5AB5C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B319" authorId="46" shapeId="0" xr:uid="{CC8BB5F8-F4F6-44C7-949C-89DA2E5B5793}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B325" authorId="47" shapeId="0" xr:uid="{D71C8388-0826-4A72-8345-BCE8A6BA86E6}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B329" authorId="48" shapeId="0" xr:uid="{E2800B90-68EE-4B9A-8CCF-BB5E08662F9F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B335" authorId="49" shapeId="0" xr:uid="{86E25F44-761A-4804-8C4C-16A84B98486C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B339" authorId="50" shapeId="0" xr:uid="{86C6B765-C229-4335-91D7-ACA443E33E90}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B349" authorId="51" shapeId="0" xr:uid="{3446F3E4-51AE-40FC-9A61-D3216B09BA08}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B353" authorId="52" shapeId="0" xr:uid="{D79DC758-285F-40C5-94F7-0ADD1ECC6D78}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B363" authorId="53" shapeId="0" xr:uid="{7D13FE4A-17EC-4227-B251-144FDCBA3C13}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B367" authorId="54" shapeId="0" xr:uid="{F10315AF-FE26-4B51-B726-5F7AAAAC49C1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B377" authorId="55" shapeId="0" xr:uid="{FBD5C542-268A-46D4-8CE2-AAE63E0DE0E7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B388" authorId="56" shapeId="0" xr:uid="{0B148D17-7BB1-4269-825C-777AC929640D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="B399" authorId="57" shapeId="0" xr:uid="{C12B7996-1C93-4DFF-B54B-AB55DB350499}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -579,18 +1099,36 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C20EF8EA-DF29-4FC2-8EE2-D88542A0002E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Small: under 100k, Medium: 100k - 500k</t>
+        </r>
       </text>
     </comment>
     <comment ref="A81" authorId="1" shapeId="0" xr:uid="{B3DDCA2C-76F7-4F62-BD45-9CEC0FEA8EA4}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Over 500k</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -598,7 +1136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6763" uniqueCount="923">
   <si>
     <t>Electrical Company Name</t>
   </si>
@@ -3630,13 +4168,100 @@
   </si>
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>Phone Number of provider</t>
+  </si>
+  <si>
+    <t>1-800-743-5000</t>
+  </si>
+  <si>
+    <t>URL of the provider</t>
+  </si>
+  <si>
+    <t>https://www.pge.com/</t>
+  </si>
+  <si>
+    <t>1-415-554-0773</t>
+  </si>
+  <si>
+    <t>CleanPowerSF_Green_54%_Renewable</t>
+  </si>
+  <si>
+    <t>https://www.cleanpowersf.org/rates</t>
+  </si>
+  <si>
+    <t>1-855-202-2139</t>
+  </si>
+  <si>
+    <t>https://sonomacleanpower.org/residential-customers</t>
+  </si>
+  <si>
+    <t>1-833-888-5464</t>
+  </si>
+  <si>
+    <t>https://www.kingcitycommunitypower.org/billing-rates</t>
+  </si>
+  <si>
+    <t>1-888-632-3674</t>
+  </si>
+  <si>
+    <t>https://mcecleanenergy.org/home-electrification/</t>
+  </si>
+  <si>
+    <t>1-833-699-3223</t>
+  </si>
+  <si>
+    <t>https://avaenergy.org/change-my-plan/</t>
+  </si>
+  <si>
+    <t>1-866-966-0110</t>
+  </si>
+  <si>
+    <t>https://www.peninsulacleanenergy.com/</t>
+  </si>
+  <si>
+    <t>https://3cenergy.org/billing/energy-choices/3cchoice/</t>
+  </si>
+  <si>
+    <t>1-877-455-2223</t>
+  </si>
+  <si>
+    <t>1-844-937-7466</t>
+  </si>
+  <si>
+    <t>https://pioneercommunityenergy.org/residential/</t>
+  </si>
+  <si>
+    <t>1-707-269-1700</t>
+  </si>
+  <si>
+    <t>https://redwoodenergy.org/residential-electricity-service/</t>
+  </si>
+  <si>
+    <t>1-833-432-2454</t>
+  </si>
+  <si>
+    <t>https://sanjosecleanenergy.org/</t>
+  </si>
+  <si>
+    <t>1-844-474-7823</t>
+  </si>
+  <si>
+    <t>https://svcleanenergy.org/</t>
+  </si>
+  <si>
+    <t>1-855-699-8232</t>
+  </si>
+  <si>
+    <t>https://valleycleanenergy.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3670,6 +4295,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3693,10 +4325,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3785,9 +4418,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}" name="Table2" displayName="Table2" ref="A1:J409" totalsRowShown="0">
-  <autoFilter ref="A1:J409" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}" name="Table2" displayName="Table2" ref="A1:L409" totalsRowShown="0">
+  <autoFilter ref="A1:L409" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Large Commercial and Industrial"/>
+        <filter val="Small and Medium Business"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{95A6D370-15B8-4E34-8058-3D30C47AABFB}" name="Electrical Company Name"/>
     <tableColumn id="2" xr3:uid="{4C0038AE-8AE8-4E4E-9EE2-4E70F164FB26}" name="Sector"/>
     <tableColumn id="3" xr3:uid="{86FE3990-D5E8-45B1-87E0-353812EB3F36}" name="Location"/>
@@ -3800,6 +4440,8 @@
     </tableColumn>
     <tableColumn id="9" xr3:uid="{65084CA2-94E3-4C14-9CBD-C3E7CBD0EE7C}" name="Renewable Energy Percentage"/>
     <tableColumn id="10" xr3:uid="{0C53E956-FC84-48A9-9575-E8A57FB61F00}" name="CO2 pounds per Mwh"/>
+    <tableColumn id="11" xr3:uid="{3FB9BC6D-8843-4EBE-A055-6A9A12E89879}" name="Phone Number of provider"/>
+    <tableColumn id="12" xr3:uid="{6D33DD9F-46BD-457F-BDA0-134D3081E8F8}" name="URL of the provider"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4317,11 +4959,11 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18069,21 +18711,21 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+    <col min="9" max="9" width="36.81640625" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.1796875" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -20092,27 +20734,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7BF5F5-9B64-444F-8807-74F4F2EE40E4}">
-  <dimension ref="A1:J409"/>
+  <dimension ref="A1:L409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="31.26953125" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" customWidth="1"/>
+    <col min="11" max="11" width="21.54296875" customWidth="1"/>
+    <col min="12" max="12" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20143,8 +20787,14 @@
       <c r="J1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>894</v>
+      </c>
+      <c r="L1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -20176,8 +20826,14 @@
       <c r="J2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>895</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -20209,8 +20865,14 @@
       <c r="J3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>895</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -20242,8 +20904,14 @@
       <c r="J4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>895</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -20275,8 +20943,14 @@
       <c r="J5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>895</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -20308,8 +20982,14 @@
       <c r="J6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>895</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -20341,8 +21021,14 @@
       <c r="J7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>895</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -20374,8 +21060,14 @@
       <c r="J8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>895</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -20407,8 +21099,14 @@
       <c r="J9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>895</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -20440,8 +21138,14 @@
       <c r="J10" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>895</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -20473,8 +21177,14 @@
       <c r="J11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>895</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -20506,8 +21216,14 @@
       <c r="J12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>895</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -20539,8 +21255,14 @@
       <c r="J13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>895</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -20572,8 +21294,14 @@
       <c r="J14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>895</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -20605,8 +21333,14 @@
       <c r="J15" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>895</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -20635,8 +21369,14 @@
       <c r="I16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -20665,8 +21405,14 @@
       <c r="I17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -20695,8 +21441,14 @@
       <c r="I18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -20725,8 +21477,14 @@
       <c r="I19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -20755,8 +21513,14 @@
       <c r="I20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -20785,8 +21549,14 @@
       <c r="I21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -20815,8 +21585,14 @@
       <c r="I22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -20845,8 +21621,14 @@
       <c r="I23">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -20875,8 +21657,14 @@
       <c r="I24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -20906,7 +21694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -20936,7 +21724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -20966,7 +21754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -20996,7 +21784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -21026,7 +21814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -21055,8 +21843,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -21085,8 +21879,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -21115,8 +21915,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -21145,8 +21951,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -21175,8 +21987,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -21205,8 +22023,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -21235,8 +22059,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -21265,8 +22095,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -21295,8 +22131,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -21326,7 +22168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -21356,7 +22198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -21386,7 +22228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -21416,7 +22258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -21446,7 +22288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -21478,8 +22320,14 @@
       <c r="J44" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>895</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -21511,8 +22359,14 @@
       <c r="J45" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>895</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -21544,8 +22398,14 @@
       <c r="J46" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>895</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -21577,8 +22437,14 @@
       <c r="J47" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>895</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -21610,8 +22476,14 @@
       <c r="J48" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>895</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -21643,8 +22515,14 @@
       <c r="J49" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>895</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -21676,8 +22554,14 @@
       <c r="J50" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>895</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -21709,8 +22593,14 @@
       <c r="J51" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>895</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -21742,10 +22632,16 @@
       <c r="J52" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>895</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>899</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -21772,8 +22668,14 @@
       <c r="I53">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>898</v>
+      </c>
+      <c r="L53" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -21802,8 +22704,14 @@
       <c r="I54">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>898</v>
+      </c>
+      <c r="L54" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -21832,8 +22740,14 @@
       <c r="I55">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>898</v>
+      </c>
+      <c r="L55" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -21862,8 +22776,14 @@
       <c r="I56">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>898</v>
+      </c>
+      <c r="L56" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -21892,8 +22812,14 @@
       <c r="I57">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>898</v>
+      </c>
+      <c r="L57" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -21922,8 +22848,14 @@
       <c r="I58">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>898</v>
+      </c>
+      <c r="L58" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -21952,8 +22884,14 @@
       <c r="I59">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>898</v>
+      </c>
+      <c r="L59" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -21983,7 +22921,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:12" hidden="1">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -22013,7 +22951,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -22042,8 +22980,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>898</v>
+      </c>
+      <c r="L62" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -22072,8 +23016,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>898</v>
+      </c>
+      <c r="L63" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -22102,8 +23052,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>898</v>
+      </c>
+      <c r="L64" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -22132,8 +23088,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="s">
+        <v>898</v>
+      </c>
+      <c r="L65" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -22162,8 +23124,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>898</v>
+      </c>
+      <c r="L66" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -22192,8 +23160,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>898</v>
+      </c>
+      <c r="L67" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -22222,8 +23196,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>898</v>
+      </c>
+      <c r="L68" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -22253,7 +23233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -22283,7 +23263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -22315,8 +23295,14 @@
       <c r="J71" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>895</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -22348,8 +23334,14 @@
       <c r="J72" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>895</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -22381,8 +23373,14 @@
       <c r="J73" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="s">
+        <v>895</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -22414,8 +23412,14 @@
       <c r="J74" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="s">
+        <v>895</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -22447,8 +23451,14 @@
       <c r="J75" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="s">
+        <v>895</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -22480,8 +23490,14 @@
       <c r="J76" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="s">
+        <v>895</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -22513,8 +23529,14 @@
       <c r="J77" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="s">
+        <v>895</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -22546,8 +23568,14 @@
       <c r="J78" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="s">
+        <v>895</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -22579,8 +23607,14 @@
       <c r="J79" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="s">
+        <v>895</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -22612,8 +23646,14 @@
       <c r="J80" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="s">
+        <v>895</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -22645,8 +23685,14 @@
       <c r="J81" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="s">
+        <v>895</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -22678,8 +23724,14 @@
       <c r="J82" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="s">
+        <v>895</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -22708,8 +23760,14 @@
       <c r="I83">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="s">
+        <v>901</v>
+      </c>
+      <c r="L83" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -22738,8 +23796,14 @@
       <c r="I84">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="s">
+        <v>901</v>
+      </c>
+      <c r="L84" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -22768,8 +23832,14 @@
       <c r="I85">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="s">
+        <v>901</v>
+      </c>
+      <c r="L85" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -22798,8 +23868,14 @@
       <c r="I86">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="s">
+        <v>901</v>
+      </c>
+      <c r="L86" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -22828,8 +23904,14 @@
       <c r="I87">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" t="s">
+        <v>901</v>
+      </c>
+      <c r="L87" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -22858,8 +23940,14 @@
       <c r="I88">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" t="s">
+        <v>901</v>
+      </c>
+      <c r="L88" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -22889,7 +23977,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:12" hidden="1">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -22919,7 +24007,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:12" hidden="1">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -22949,7 +24037,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:12" hidden="1">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -22979,7 +24067,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:12" hidden="1">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -23009,7 +24097,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:12" hidden="1">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -23039,7 +24127,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -23068,8 +24156,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" t="s">
+        <v>901</v>
+      </c>
+      <c r="L95" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -23098,8 +24192,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" t="s">
+        <v>901</v>
+      </c>
+      <c r="L96" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -23128,8 +24228,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" t="s">
+        <v>901</v>
+      </c>
+      <c r="L97" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -23158,8 +24264,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" t="s">
+        <v>901</v>
+      </c>
+      <c r="L98" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -23188,8 +24300,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" t="s">
+        <v>901</v>
+      </c>
+      <c r="L99" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -23218,8 +24336,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" t="s">
+        <v>901</v>
+      </c>
+      <c r="L100" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -23249,7 +24373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:12" hidden="1">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -23279,7 +24403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:12" hidden="1">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -23309,7 +24433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:12" hidden="1">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -23339,7 +24463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:12" hidden="1">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -23369,7 +24493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:12" hidden="1">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -23399,7 +24523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -23431,8 +24555,14 @@
       <c r="J107" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" t="s">
+        <v>895</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -23464,8 +24594,14 @@
       <c r="J108" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" t="s">
+        <v>895</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -23497,8 +24633,14 @@
       <c r="J109" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109" t="s">
+        <v>895</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -23530,8 +24672,14 @@
       <c r="J110" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" t="s">
+        <v>895</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -23563,8 +24711,14 @@
       <c r="J111" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" t="s">
+        <v>895</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -23596,8 +24750,14 @@
       <c r="J112" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112" t="s">
+        <v>895</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -23629,8 +24789,14 @@
       <c r="J113" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113" t="s">
+        <v>895</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -23662,8 +24828,14 @@
       <c r="J114" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114" t="s">
+        <v>895</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -23695,8 +24867,14 @@
       <c r="J115" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115" t="s">
+        <v>895</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -23728,8 +24906,14 @@
       <c r="J116" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" t="s">
+        <v>895</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -23761,8 +24945,14 @@
       <c r="J117" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117" t="s">
+        <v>895</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -23794,8 +24984,14 @@
       <c r="J118" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118" t="s">
+        <v>895</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -23827,8 +25023,14 @@
       <c r="J119" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119" t="s">
+        <v>895</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -23860,8 +25062,14 @@
       <c r="J120" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120" t="s">
+        <v>895</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -23890,8 +25098,14 @@
       <c r="I121">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" t="s">
+        <v>905</v>
+      </c>
+      <c r="L121" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -23920,8 +25134,14 @@
       <c r="I122">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" t="s">
+        <v>905</v>
+      </c>
+      <c r="L122" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -23950,8 +25170,14 @@
       <c r="I123">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123" t="s">
+        <v>905</v>
+      </c>
+      <c r="L123" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -23980,8 +25206,14 @@
       <c r="I124">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124" t="s">
+        <v>905</v>
+      </c>
+      <c r="L124" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -24010,8 +25242,14 @@
       <c r="I125">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125" t="s">
+        <v>905</v>
+      </c>
+      <c r="L125" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -24040,8 +25278,14 @@
       <c r="I126">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126" t="s">
+        <v>905</v>
+      </c>
+      <c r="L126" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -24070,8 +25314,14 @@
       <c r="I127">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127" t="s">
+        <v>905</v>
+      </c>
+      <c r="L127" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -24100,8 +25350,14 @@
       <c r="I128">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="K128" t="s">
+        <v>905</v>
+      </c>
+      <c r="L128" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -24131,7 +25387,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:12" hidden="1">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -24161,7 +25417,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:12" hidden="1">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -24191,7 +25447,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:12" hidden="1">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -24221,7 +25477,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:12" hidden="1">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -24251,7 +25507,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:12" hidden="1">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -24281,7 +25537,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -24310,8 +25566,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="K135" t="s">
+        <v>905</v>
+      </c>
+      <c r="L135" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -24340,8 +25602,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="K136" t="s">
+        <v>905</v>
+      </c>
+      <c r="L136" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -24370,8 +25638,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="K137" t="s">
+        <v>905</v>
+      </c>
+      <c r="L137" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -24400,8 +25674,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="K138" t="s">
+        <v>905</v>
+      </c>
+      <c r="L138" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -24430,8 +25710,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="K139" t="s">
+        <v>905</v>
+      </c>
+      <c r="L139" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -24460,8 +25746,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="K140" t="s">
+        <v>905</v>
+      </c>
+      <c r="L140" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -24490,8 +25782,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="K141" t="s">
+        <v>905</v>
+      </c>
+      <c r="L141" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -24520,8 +25818,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="K142" t="s">
+        <v>905</v>
+      </c>
+      <c r="L142" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -24551,7 +25855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:12" hidden="1">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -24581,7 +25885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:12" hidden="1">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -24611,7 +25915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:12" hidden="1">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -24641,7 +25945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:12" hidden="1">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -24671,7 +25975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:12" hidden="1">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -24701,7 +26005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -24733,8 +26037,14 @@
       <c r="J149" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149" t="s">
+        <v>895</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -24766,8 +26076,14 @@
       <c r="J150" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150" t="s">
+        <v>895</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -24799,8 +26115,14 @@
       <c r="J151" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151" t="s">
+        <v>895</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -24832,8 +26154,14 @@
       <c r="J152" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152" t="s">
+        <v>895</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -24865,8 +26193,14 @@
       <c r="J153" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153" t="s">
+        <v>895</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -24898,8 +26232,14 @@
       <c r="J154" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154" t="s">
+        <v>895</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -24928,8 +26268,14 @@
       <c r="I155">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155" t="s">
+        <v>909</v>
+      </c>
+      <c r="L155" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -24958,8 +26304,14 @@
       <c r="I156">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156" t="s">
+        <v>909</v>
+      </c>
+      <c r="L156" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -24988,8 +26340,14 @@
       <c r="I157">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157" t="s">
+        <v>909</v>
+      </c>
+      <c r="L157" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -25018,8 +26376,14 @@
       <c r="I158">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158" t="s">
+        <v>909</v>
+      </c>
+      <c r="L158" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -25048,8 +26412,14 @@
       <c r="I159">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159" t="s">
+        <v>909</v>
+      </c>
+      <c r="L159" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -25079,7 +26449,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>40</v>
       </c>
@@ -25108,8 +26478,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161" t="s">
+        <v>909</v>
+      </c>
+      <c r="L161" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>40</v>
       </c>
@@ -25138,8 +26514,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162" t="s">
+        <v>909</v>
+      </c>
+      <c r="L162" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -25168,8 +26550,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163" t="s">
+        <v>909</v>
+      </c>
+      <c r="L163" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -25198,8 +26586,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164" t="s">
+        <v>909</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -25228,8 +26622,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165" t="s">
+        <v>909</v>
+      </c>
+      <c r="L165" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" hidden="1">
       <c r="A166" t="s">
         <v>40</v>
       </c>
@@ -25259,7 +26659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -25291,8 +26691,14 @@
       <c r="J167" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167" t="s">
+        <v>895</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -25324,8 +26730,14 @@
       <c r="J168" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168" t="s">
+        <v>895</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -25357,8 +26769,14 @@
       <c r="J169" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169" t="s">
+        <v>895</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -25390,8 +26808,14 @@
       <c r="J170" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170" t="s">
+        <v>895</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -25423,8 +26847,14 @@
       <c r="J171" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171" t="s">
+        <v>895</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -25456,8 +26886,14 @@
       <c r="J172" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172" t="s">
+        <v>895</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" hidden="1">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -25489,8 +26925,14 @@
       <c r="J173" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173" t="s">
+        <v>895</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" hidden="1">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -25522,8 +26964,14 @@
       <c r="J174" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174" t="s">
+        <v>895</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" hidden="1">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -25555,8 +27003,14 @@
       <c r="J175" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175" t="s">
+        <v>895</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" hidden="1">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -25588,8 +27042,14 @@
       <c r="J176" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176" t="s">
+        <v>895</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" hidden="1">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -25621,8 +27081,14 @@
       <c r="J177" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177" t="s">
+        <v>895</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -25654,8 +27120,14 @@
       <c r="J178" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178" t="s">
+        <v>895</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -25684,8 +27156,14 @@
       <c r="I179">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179" t="s">
+        <v>909</v>
+      </c>
+      <c r="L179" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -25714,8 +27192,14 @@
       <c r="I180">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180" t="s">
+        <v>909</v>
+      </c>
+      <c r="L180" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>39</v>
       </c>
@@ -25744,8 +27228,14 @@
       <c r="I181">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181" t="s">
+        <v>909</v>
+      </c>
+      <c r="L181" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -25774,8 +27264,14 @@
       <c r="I182">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182" t="s">
+        <v>909</v>
+      </c>
+      <c r="L182" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -25804,8 +27300,14 @@
       <c r="I183">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183" t="s">
+        <v>909</v>
+      </c>
+      <c r="L183" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -25834,8 +27336,14 @@
       <c r="I184">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184" t="s">
+        <v>909</v>
+      </c>
+      <c r="L184" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" hidden="1">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -25865,7 +27373,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:12" hidden="1">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -25895,7 +27403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:12" hidden="1">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -25925,7 +27433,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:12" hidden="1">
       <c r="A188" t="s">
         <v>39</v>
       </c>
@@ -25955,7 +27463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:12" hidden="1">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -25985,7 +27493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:12" hidden="1">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -26015,7 +27523,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -26044,8 +27552,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191" t="s">
+        <v>909</v>
+      </c>
+      <c r="L191" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -26074,8 +27588,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192" t="s">
+        <v>909</v>
+      </c>
+      <c r="L192" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -26104,8 +27624,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193" t="s">
+        <v>909</v>
+      </c>
+      <c r="L193" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>40</v>
       </c>
@@ -26134,8 +27660,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194" t="s">
+        <v>909</v>
+      </c>
+      <c r="L194" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -26164,8 +27696,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195" t="s">
+        <v>909</v>
+      </c>
+      <c r="L195" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>40</v>
       </c>
@@ -26194,8 +27732,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196" t="s">
+        <v>909</v>
+      </c>
+      <c r="L196" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" hidden="1">
       <c r="A197" t="s">
         <v>40</v>
       </c>
@@ -26225,7 +27769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:12" hidden="1">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -26255,7 +27799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:12" hidden="1">
       <c r="A199" t="s">
         <v>40</v>
       </c>
@@ -26285,7 +27829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:12" hidden="1">
       <c r="A200" t="s">
         <v>40</v>
       </c>
@@ -26315,7 +27859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:12" hidden="1">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -26345,7 +27889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:12" hidden="1">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -26375,7 +27919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -26407,8 +27951,14 @@
       <c r="J203" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203" t="s">
+        <v>895</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -26440,8 +27990,14 @@
       <c r="J204" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204" t="s">
+        <v>895</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -26473,8 +28029,14 @@
       <c r="J205" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205" t="s">
+        <v>895</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -26506,8 +28068,14 @@
       <c r="J206" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206" t="s">
+        <v>895</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -26539,8 +28107,14 @@
       <c r="J207" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207" t="s">
+        <v>895</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>1</v>
       </c>
@@ -26572,8 +28146,14 @@
       <c r="J208" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208" t="s">
+        <v>895</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -26605,8 +28185,14 @@
       <c r="J209" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209" t="s">
+        <v>895</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -26638,8 +28224,14 @@
       <c r="J210" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210" t="s">
+        <v>895</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" hidden="1">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -26671,8 +28263,14 @@
       <c r="J211" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211" t="s">
+        <v>895</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" hidden="1">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -26704,8 +28302,14 @@
       <c r="J212" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212" t="s">
+        <v>895</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" hidden="1">
       <c r="A213" t="s">
         <v>1</v>
       </c>
@@ -26737,8 +28341,14 @@
       <c r="J213" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213" t="s">
+        <v>895</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" hidden="1">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -26770,8 +28380,14 @@
       <c r="J214" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214" t="s">
+        <v>895</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" hidden="1">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -26803,8 +28419,14 @@
       <c r="J215" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215" t="s">
+        <v>895</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" hidden="1">
       <c r="A216" t="s">
         <v>1</v>
       </c>
@@ -26836,8 +28458,14 @@
       <c r="J216" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216" t="s">
+        <v>895</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>46</v>
       </c>
@@ -26866,8 +28494,14 @@
       <c r="I217">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L217" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -26896,8 +28530,14 @@
       <c r="I218">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L218" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -26926,8 +28566,14 @@
       <c r="I219">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L219" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>46</v>
       </c>
@@ -26956,8 +28602,14 @@
       <c r="I220">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L220" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>46</v>
       </c>
@@ -26986,8 +28638,14 @@
       <c r="I221">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L221" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>46</v>
       </c>
@@ -27016,8 +28674,14 @@
       <c r="I222">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L222" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>46</v>
       </c>
@@ -27046,8 +28710,14 @@
       <c r="I223">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L223" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -27076,8 +28746,14 @@
       <c r="I224">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L224" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" hidden="1">
       <c r="A225" t="s">
         <v>46</v>
       </c>
@@ -27107,7 +28783,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:12" hidden="1">
       <c r="A226" t="s">
         <v>46</v>
       </c>
@@ -27137,7 +28813,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:12" hidden="1">
       <c r="A227" t="s">
         <v>46</v>
       </c>
@@ -27167,7 +28843,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:12" hidden="1">
       <c r="A228" t="s">
         <v>46</v>
       </c>
@@ -27197,7 +28873,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:12" hidden="1">
       <c r="A229" t="s">
         <v>46</v>
       </c>
@@ -27227,7 +28903,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:12" hidden="1">
       <c r="A230" t="s">
         <v>46</v>
       </c>
@@ -27257,7 +28933,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -27289,8 +28965,14 @@
       <c r="J231" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231" t="s">
+        <v>895</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>1</v>
       </c>
@@ -27322,8 +29004,14 @@
       <c r="J232" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232" t="s">
+        <v>895</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>1</v>
       </c>
@@ -27355,8 +29043,14 @@
       <c r="J233" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233" t="s">
+        <v>895</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>1</v>
       </c>
@@ -27388,8 +29082,14 @@
       <c r="J234" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234" t="s">
+        <v>895</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>49</v>
       </c>
@@ -27418,8 +29118,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235" t="s">
+        <v>903</v>
+      </c>
+      <c r="L235" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -27448,8 +29154,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236" t="s">
+        <v>903</v>
+      </c>
+      <c r="L236" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>49</v>
       </c>
@@ -27478,8 +29190,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237" t="s">
+        <v>903</v>
+      </c>
+      <c r="L237" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -27508,8 +29226,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238" t="s">
+        <v>903</v>
+      </c>
+      <c r="L238" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -27541,8 +29265,14 @@
       <c r="J239" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239" t="s">
+        <v>895</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -27574,8 +29304,14 @@
       <c r="J240" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240" t="s">
+        <v>895</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -27607,8 +29343,14 @@
       <c r="J241" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241" t="s">
+        <v>895</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -27640,8 +29382,14 @@
       <c r="J242" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242" t="s">
+        <v>895</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -27673,8 +29421,14 @@
       <c r="J243" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243" t="s">
+        <v>895</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" hidden="1">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -27706,8 +29460,14 @@
       <c r="J244" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244" t="s">
+        <v>895</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" hidden="1">
       <c r="A245" t="s">
         <v>32</v>
       </c>
@@ -27739,8 +29499,14 @@
       <c r="J245" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245" t="s">
+        <v>895</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" hidden="1">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -27772,8 +29538,14 @@
       <c r="J246" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246" t="s">
+        <v>895</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" hidden="1">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -27805,8 +29577,14 @@
       <c r="J247" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247" t="s">
+        <v>895</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" hidden="1">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -27838,8 +29616,14 @@
       <c r="J248" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248" t="s">
+        <v>895</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" hidden="1">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -27871,8 +29655,14 @@
       <c r="J249" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249" t="s">
+        <v>895</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>50</v>
       </c>
@@ -27901,8 +29691,14 @@
       <c r="I250">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250" t="s">
+        <v>913</v>
+      </c>
+      <c r="L250" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>50</v>
       </c>
@@ -27931,8 +29727,14 @@
       <c r="I251">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251" t="s">
+        <v>913</v>
+      </c>
+      <c r="L251" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -27961,8 +29763,14 @@
       <c r="I252">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252" t="s">
+        <v>913</v>
+      </c>
+      <c r="L252" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>50</v>
       </c>
@@ -27991,8 +29799,14 @@
       <c r="I253">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253" t="s">
+        <v>913</v>
+      </c>
+      <c r="L253" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>50</v>
       </c>
@@ -28021,8 +29835,14 @@
       <c r="I254">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254" t="s">
+        <v>913</v>
+      </c>
+      <c r="L254" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" hidden="1">
       <c r="A255" t="s">
         <v>50</v>
       </c>
@@ -28052,7 +29872,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:12" hidden="1">
       <c r="A256" t="s">
         <v>50</v>
       </c>
@@ -28082,7 +29902,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:12" hidden="1">
       <c r="A257" t="s">
         <v>50</v>
       </c>
@@ -28112,7 +29932,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:12" hidden="1">
       <c r="A258" t="s">
         <v>50</v>
       </c>
@@ -28142,7 +29962,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:12" hidden="1">
       <c r="A259" t="s">
         <v>50</v>
       </c>
@@ -28172,7 +29992,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:12" hidden="1">
       <c r="A260" t="s">
         <v>50</v>
       </c>
@@ -28202,7 +30022,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
         <v>51</v>
       </c>
@@ -28231,8 +30051,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261" t="s">
+        <v>913</v>
+      </c>
+      <c r="L261" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -28261,8 +30087,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262" t="s">
+        <v>913</v>
+      </c>
+      <c r="L262" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -28291,8 +30123,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263" t="s">
+        <v>913</v>
+      </c>
+      <c r="L263" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>51</v>
       </c>
@@ -28321,8 +30159,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264" t="s">
+        <v>913</v>
+      </c>
+      <c r="L264" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -28351,8 +30195,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265" t="s">
+        <v>913</v>
+      </c>
+      <c r="L265" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" hidden="1">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -28382,7 +30232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:12" hidden="1">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -28412,7 +30262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:12" hidden="1">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -28442,7 +30292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:12" hidden="1">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -28472,7 +30322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:12" hidden="1">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -28502,7 +30352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:12" hidden="1">
       <c r="A271" t="s">
         <v>51</v>
       </c>
@@ -28532,7 +30382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -28564,8 +30414,14 @@
       <c r="J272" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272" t="s">
+        <v>895</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -28597,8 +30453,14 @@
       <c r="J273" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273" t="s">
+        <v>895</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -28630,8 +30492,14 @@
       <c r="J274" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274" t="s">
+        <v>895</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -28663,8 +30531,14 @@
       <c r="J275" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275" t="s">
+        <v>895</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -28696,8 +30570,14 @@
       <c r="J276" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276" t="s">
+        <v>895</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" hidden="1">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -28729,8 +30609,14 @@
       <c r="J277" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277" t="s">
+        <v>895</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" hidden="1">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -28762,8 +30648,14 @@
       <c r="J278" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278" t="s">
+        <v>895</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" hidden="1">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -28795,8 +30687,14 @@
       <c r="J279" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279" t="s">
+        <v>895</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" hidden="1">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -28828,8 +30726,14 @@
       <c r="J280" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280" t="s">
+        <v>895</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" hidden="1">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -28861,8 +30765,14 @@
       <c r="J281" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281" t="s">
+        <v>895</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" hidden="1">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -28894,8 +30804,14 @@
       <c r="J282" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282" t="s">
+        <v>895</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>52</v>
       </c>
@@ -28924,8 +30840,14 @@
       <c r="I283">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283" t="s">
+        <v>915</v>
+      </c>
+      <c r="L283" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>52</v>
       </c>
@@ -28954,8 +30876,14 @@
       <c r="I284">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284" t="s">
+        <v>915</v>
+      </c>
+      <c r="L284" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>52</v>
       </c>
@@ -28984,8 +30912,14 @@
       <c r="I285">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285" t="s">
+        <v>915</v>
+      </c>
+      <c r="L285" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -29014,8 +30948,14 @@
       <c r="I286">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286" t="s">
+        <v>915</v>
+      </c>
+      <c r="L286" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
         <v>52</v>
       </c>
@@ -29044,8 +30984,14 @@
       <c r="I287">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287" t="s">
+        <v>915</v>
+      </c>
+      <c r="L287" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" hidden="1">
       <c r="A288" t="s">
         <v>52</v>
       </c>
@@ -29075,7 +31021,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:12" hidden="1">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -29105,7 +31051,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:12" hidden="1">
       <c r="A290" t="s">
         <v>52</v>
       </c>
@@ -29135,7 +31081,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:12" hidden="1">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -29165,7 +31111,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:12" hidden="1">
       <c r="A292" t="s">
         <v>52</v>
       </c>
@@ -29195,7 +31141,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:12" hidden="1">
       <c r="A293" t="s">
         <v>52</v>
       </c>
@@ -29225,7 +31171,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:12">
       <c r="A294" t="s">
         <v>53</v>
       </c>
@@ -29254,8 +31200,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="K294" t="s">
+        <v>915</v>
+      </c>
+      <c r="L294" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" t="s">
         <v>53</v>
       </c>
@@ -29284,8 +31236,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="K295" t="s">
+        <v>915</v>
+      </c>
+      <c r="L295" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" t="s">
         <v>53</v>
       </c>
@@ -29314,8 +31272,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="K296" t="s">
+        <v>915</v>
+      </c>
+      <c r="L296" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" t="s">
         <v>53</v>
       </c>
@@ -29344,8 +31308,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="K297" t="s">
+        <v>915</v>
+      </c>
+      <c r="L297" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -29374,8 +31344,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="K298" t="s">
+        <v>915</v>
+      </c>
+      <c r="L298" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" hidden="1">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -29405,7 +31381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:12" hidden="1">
       <c r="A300" t="s">
         <v>53</v>
       </c>
@@ -29435,7 +31411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:12" hidden="1">
       <c r="A301" t="s">
         <v>53</v>
       </c>
@@ -29465,7 +31441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:12" hidden="1">
       <c r="A302" t="s">
         <v>53</v>
       </c>
@@ -29495,7 +31471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:12" hidden="1">
       <c r="A303" t="s">
         <v>53</v>
       </c>
@@ -29525,7 +31501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:12" hidden="1">
       <c r="A304" t="s">
         <v>53</v>
       </c>
@@ -29555,7 +31531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:12">
       <c r="A305" t="s">
         <v>1</v>
       </c>
@@ -29587,8 +31563,14 @@
       <c r="J305" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305" t="s">
+        <v>895</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" t="s">
         <v>1</v>
       </c>
@@ -29620,8 +31602,14 @@
       <c r="J306" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306" t="s">
+        <v>895</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307" t="s">
         <v>1</v>
       </c>
@@ -29653,8 +31641,14 @@
       <c r="J307" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307" t="s">
+        <v>895</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" t="s">
         <v>1</v>
       </c>
@@ -29686,8 +31680,14 @@
       <c r="J308" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308" t="s">
+        <v>895</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -29719,8 +31719,14 @@
       <c r="J309" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309" t="s">
+        <v>895</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -29752,8 +31758,14 @@
       <c r="J310" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310" t="s">
+        <v>895</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311" t="s">
         <v>1</v>
       </c>
@@ -29785,8 +31797,14 @@
       <c r="J311" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="K311" t="s">
+        <v>895</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -29818,8 +31836,14 @@
       <c r="J312" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="K312" t="s">
+        <v>895</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" hidden="1">
       <c r="A313" t="s">
         <v>1</v>
       </c>
@@ -29851,8 +31875,14 @@
       <c r="J313" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="314" spans="1:10">
+      <c r="K313" t="s">
+        <v>895</v>
+      </c>
+      <c r="L313" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" hidden="1">
       <c r="A314" t="s">
         <v>1</v>
       </c>
@@ -29884,8 +31914,14 @@
       <c r="J314" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="315" spans="1:10">
+      <c r="K314" t="s">
+        <v>895</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315" t="s">
         <v>54</v>
       </c>
@@ -29914,8 +31950,14 @@
       <c r="I315">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="316" spans="1:10">
+      <c r="K315" t="s">
+        <v>917</v>
+      </c>
+      <c r="L315" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316" t="s">
         <v>54</v>
       </c>
@@ -29944,8 +31986,14 @@
       <c r="I316">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="317" spans="1:10">
+      <c r="K316" t="s">
+        <v>917</v>
+      </c>
+      <c r="L316" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" t="s">
         <v>54</v>
       </c>
@@ -29974,8 +32022,14 @@
       <c r="I317">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="318" spans="1:10">
+      <c r="K317" t="s">
+        <v>917</v>
+      </c>
+      <c r="L317" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318" t="s">
         <v>54</v>
       </c>
@@ -30004,8 +32058,14 @@
       <c r="I318">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="319" spans="1:10">
+      <c r="K318" t="s">
+        <v>917</v>
+      </c>
+      <c r="L318" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319" t="s">
         <v>54</v>
       </c>
@@ -30034,8 +32094,14 @@
       <c r="I319">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="320" spans="1:10">
+      <c r="K319" t="s">
+        <v>917</v>
+      </c>
+      <c r="L319" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320" t="s">
         <v>54</v>
       </c>
@@ -30064,8 +32130,14 @@
       <c r="I320">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320" t="s">
+        <v>917</v>
+      </c>
+      <c r="L320" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
       <c r="A321" t="s">
         <v>54</v>
       </c>
@@ -30094,8 +32166,14 @@
       <c r="I321">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321" t="s">
+        <v>917</v>
+      </c>
+      <c r="L321" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
       <c r="A322" t="s">
         <v>54</v>
       </c>
@@ -30124,8 +32202,14 @@
       <c r="I322">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="323" spans="1:10">
+      <c r="K322" t="s">
+        <v>917</v>
+      </c>
+      <c r="L322" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" hidden="1">
       <c r="A323" t="s">
         <v>54</v>
       </c>
@@ -30155,7 +32239,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:12" hidden="1">
       <c r="A324" t="s">
         <v>54</v>
       </c>
@@ -30185,7 +32269,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:12">
       <c r="A325" t="s">
         <v>56</v>
       </c>
@@ -30214,8 +32298,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325" t="s">
+        <v>917</v>
+      </c>
+      <c r="L325" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
       <c r="A326" t="s">
         <v>56</v>
       </c>
@@ -30244,8 +32334,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326" t="s">
+        <v>917</v>
+      </c>
+      <c r="L326" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
       <c r="A327" t="s">
         <v>56</v>
       </c>
@@ -30274,8 +32370,14 @@
       <c r="I327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:10">
+      <c r="K327" t="s">
+        <v>917</v>
+      </c>
+      <c r="L327" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
       <c r="A328" t="s">
         <v>56</v>
       </c>
@@ -30304,8 +32406,14 @@
       <c r="I328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:10">
+      <c r="K328" t="s">
+        <v>917</v>
+      </c>
+      <c r="L328" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
       <c r="A329" t="s">
         <v>56</v>
       </c>
@@ -30334,8 +32442,14 @@
       <c r="I329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:10">
+      <c r="K329" t="s">
+        <v>917</v>
+      </c>
+      <c r="L329" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -30364,8 +32478,14 @@
       <c r="I330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:10">
+      <c r="K330" t="s">
+        <v>917</v>
+      </c>
+      <c r="L330" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
       <c r="A331" t="s">
         <v>56</v>
       </c>
@@ -30394,8 +32514,14 @@
       <c r="I331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:10">
+      <c r="K331" t="s">
+        <v>917</v>
+      </c>
+      <c r="L331" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
       <c r="A332" t="s">
         <v>56</v>
       </c>
@@ -30424,8 +32550,14 @@
       <c r="I332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:10">
+      <c r="K332" t="s">
+        <v>917</v>
+      </c>
+      <c r="L332" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" hidden="1">
       <c r="A333" t="s">
         <v>56</v>
       </c>
@@ -30455,7 +32587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:12" hidden="1">
       <c r="A334" t="s">
         <v>55</v>
       </c>
@@ -30485,7 +32617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:12">
       <c r="A335" t="s">
         <v>32</v>
       </c>
@@ -30517,8 +32649,14 @@
       <c r="J335" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="336" spans="1:10">
+      <c r="K335" t="s">
+        <v>895</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12">
       <c r="A336" t="s">
         <v>1</v>
       </c>
@@ -30550,8 +32688,14 @@
       <c r="J336" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="337" spans="1:10">
+      <c r="K336" t="s">
+        <v>895</v>
+      </c>
+      <c r="L336" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12">
       <c r="A337" t="s">
         <v>1</v>
       </c>
@@ -30583,8 +32727,14 @@
       <c r="J337" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="338" spans="1:10">
+      <c r="K337" t="s">
+        <v>895</v>
+      </c>
+      <c r="L337" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12">
       <c r="A338" t="s">
         <v>1</v>
       </c>
@@ -30616,8 +32766,14 @@
       <c r="J338" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="339" spans="1:10">
+      <c r="K338" t="s">
+        <v>895</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12">
       <c r="A339" t="s">
         <v>1</v>
       </c>
@@ -30649,8 +32805,14 @@
       <c r="J339" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="340" spans="1:10">
+      <c r="K339" t="s">
+        <v>895</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12">
       <c r="A340" t="s">
         <v>1</v>
       </c>
@@ -30682,8 +32844,14 @@
       <c r="J340" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="341" spans="1:10">
+      <c r="K340" t="s">
+        <v>895</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12">
       <c r="A341" t="s">
         <v>1</v>
       </c>
@@ -30715,8 +32883,14 @@
       <c r="J341" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="342" spans="1:10">
+      <c r="K341" t="s">
+        <v>895</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
       <c r="A342" t="s">
         <v>1</v>
       </c>
@@ -30748,8 +32922,14 @@
       <c r="J342" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="343" spans="1:10">
+      <c r="K342" t="s">
+        <v>895</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" hidden="1">
       <c r="A343" t="s">
         <v>1</v>
       </c>
@@ -30781,8 +32961,14 @@
       <c r="J343" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="344" spans="1:10">
+      <c r="K343" t="s">
+        <v>895</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" hidden="1">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -30814,8 +33000,14 @@
       <c r="J344" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="345" spans="1:10">
+      <c r="K344" t="s">
+        <v>895</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" hidden="1">
       <c r="A345" t="s">
         <v>1</v>
       </c>
@@ -30847,8 +33039,14 @@
       <c r="J345" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="346" spans="1:10">
+      <c r="K345" t="s">
+        <v>895</v>
+      </c>
+      <c r="L345" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" hidden="1">
       <c r="A346" t="s">
         <v>1</v>
       </c>
@@ -30880,8 +33078,14 @@
       <c r="J346" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="347" spans="1:10">
+      <c r="K346" t="s">
+        <v>895</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" hidden="1">
       <c r="A347" t="s">
         <v>1</v>
       </c>
@@ -30913,8 +33117,14 @@
       <c r="J347" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="348" spans="1:10">
+      <c r="K347" t="s">
+        <v>895</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" hidden="1">
       <c r="A348" t="s">
         <v>1</v>
       </c>
@@ -30946,8 +33156,14 @@
       <c r="J348" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="349" spans="1:10">
+      <c r="K348" t="s">
+        <v>895</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12">
       <c r="A349" t="s">
         <v>58</v>
       </c>
@@ -30976,8 +33192,14 @@
       <c r="I349">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="350" spans="1:10">
+      <c r="K349" t="s">
+        <v>919</v>
+      </c>
+      <c r="L349" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12">
       <c r="A350" t="s">
         <v>58</v>
       </c>
@@ -31006,8 +33228,14 @@
       <c r="I350">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="351" spans="1:10">
+      <c r="K350" t="s">
+        <v>919</v>
+      </c>
+      <c r="L350" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
       <c r="A351" t="s">
         <v>58</v>
       </c>
@@ -31036,8 +33264,14 @@
       <c r="I351">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="352" spans="1:10">
+      <c r="K351" t="s">
+        <v>919</v>
+      </c>
+      <c r="L351" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12">
       <c r="A352" t="s">
         <v>58</v>
       </c>
@@ -31066,8 +33300,14 @@
       <c r="I352">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="353" spans="1:9">
+      <c r="K352" t="s">
+        <v>919</v>
+      </c>
+      <c r="L352" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
       <c r="A353" t="s">
         <v>58</v>
       </c>
@@ -31096,8 +33336,14 @@
       <c r="I353">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="354" spans="1:9">
+      <c r="K353" t="s">
+        <v>919</v>
+      </c>
+      <c r="L353" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
       <c r="A354" t="s">
         <v>58</v>
       </c>
@@ -31126,8 +33372,14 @@
       <c r="I354">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="355" spans="1:9">
+      <c r="K354" t="s">
+        <v>919</v>
+      </c>
+      <c r="L354" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
       <c r="A355" t="s">
         <v>58</v>
       </c>
@@ -31156,8 +33408,14 @@
       <c r="I355">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="356" spans="1:9">
+      <c r="K355" t="s">
+        <v>919</v>
+      </c>
+      <c r="L355" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
       <c r="A356" t="s">
         <v>58</v>
       </c>
@@ -31186,8 +33444,14 @@
       <c r="I356">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="357" spans="1:9">
+      <c r="K356" t="s">
+        <v>919</v>
+      </c>
+      <c r="L356" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" hidden="1">
       <c r="A357" t="s">
         <v>58</v>
       </c>
@@ -31217,7 +33481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:12" hidden="1">
       <c r="A358" t="s">
         <v>58</v>
       </c>
@@ -31247,7 +33511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:12" hidden="1">
       <c r="A359" t="s">
         <v>58</v>
       </c>
@@ -31277,7 +33541,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:12" hidden="1">
       <c r="A360" t="s">
         <v>58</v>
       </c>
@@ -31307,7 +33571,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:12" hidden="1">
       <c r="A361" t="s">
         <v>58</v>
       </c>
@@ -31337,7 +33601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:12" hidden="1">
       <c r="A362" t="s">
         <v>58</v>
       </c>
@@ -31367,7 +33631,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:12">
       <c r="A363" t="s">
         <v>59</v>
       </c>
@@ -31396,8 +33660,14 @@
       <c r="I363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:9">
+      <c r="K363" t="s">
+        <v>919</v>
+      </c>
+      <c r="L363" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
       <c r="A364" t="s">
         <v>59</v>
       </c>
@@ -31426,8 +33696,14 @@
       <c r="I364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:9">
+      <c r="K364" t="s">
+        <v>919</v>
+      </c>
+      <c r="L364" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
       <c r="A365" t="s">
         <v>59</v>
       </c>
@@ -31456,8 +33732,14 @@
       <c r="I365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:9">
+      <c r="K365" t="s">
+        <v>919</v>
+      </c>
+      <c r="L365" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
       <c r="A366" t="s">
         <v>59</v>
       </c>
@@ -31486,8 +33768,14 @@
       <c r="I366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:9">
+      <c r="K366" t="s">
+        <v>919</v>
+      </c>
+      <c r="L366" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
       <c r="A367" t="s">
         <v>59</v>
       </c>
@@ -31516,8 +33804,14 @@
       <c r="I367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:9">
+      <c r="K367" t="s">
+        <v>919</v>
+      </c>
+      <c r="L367" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
       <c r="A368" t="s">
         <v>59</v>
       </c>
@@ -31546,8 +33840,14 @@
       <c r="I368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:10">
+      <c r="K368" t="s">
+        <v>919</v>
+      </c>
+      <c r="L368" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
       <c r="A369" t="s">
         <v>59</v>
       </c>
@@ -31576,8 +33876,14 @@
       <c r="I369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:10">
+      <c r="K369" t="s">
+        <v>919</v>
+      </c>
+      <c r="L369" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
       <c r="A370" t="s">
         <v>59</v>
       </c>
@@ -31606,8 +33912,14 @@
       <c r="I370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:10">
+      <c r="K370" t="s">
+        <v>919</v>
+      </c>
+      <c r="L370" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" hidden="1">
       <c r="A371" t="s">
         <v>59</v>
       </c>
@@ -31637,7 +33949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:12" hidden="1">
       <c r="A372" t="s">
         <v>59</v>
       </c>
@@ -31667,7 +33979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:12" hidden="1">
       <c r="A373" t="s">
         <v>59</v>
       </c>
@@ -31697,7 +34009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:12" hidden="1">
       <c r="A374" t="s">
         <v>59</v>
       </c>
@@ -31727,7 +34039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:12" hidden="1">
       <c r="A375" t="s">
         <v>59</v>
       </c>
@@ -31757,7 +34069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:12" hidden="1">
       <c r="A376" t="s">
         <v>59</v>
       </c>
@@ -31787,7 +34099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:12">
       <c r="A377" t="s">
         <v>32</v>
       </c>
@@ -31819,8 +34131,14 @@
       <c r="J377" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="378" spans="1:10">
+      <c r="K377" t="s">
+        <v>895</v>
+      </c>
+      <c r="L377" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
       <c r="A378" t="s">
         <v>1</v>
       </c>
@@ -31852,8 +34170,14 @@
       <c r="J378" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="379" spans="1:10">
+      <c r="K378" t="s">
+        <v>895</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
       <c r="A379" t="s">
         <v>1</v>
       </c>
@@ -31885,8 +34209,14 @@
       <c r="J379" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="380" spans="1:10">
+      <c r="K379" t="s">
+        <v>895</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
       <c r="A380" t="s">
         <v>1</v>
       </c>
@@ -31918,8 +34248,14 @@
       <c r="J380" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="381" spans="1:10">
+      <c r="K380" t="s">
+        <v>895</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
       <c r="A381" t="s">
         <v>1</v>
       </c>
@@ -31951,8 +34287,14 @@
       <c r="J381" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="382" spans="1:10">
+      <c r="K381" t="s">
+        <v>895</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" hidden="1">
       <c r="A382" t="s">
         <v>1</v>
       </c>
@@ -31984,8 +34326,14 @@
       <c r="J382" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="383" spans="1:10">
+      <c r="K382" t="s">
+        <v>895</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" hidden="1">
       <c r="A383" t="s">
         <v>32</v>
       </c>
@@ -32017,8 +34365,14 @@
       <c r="J383" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="384" spans="1:10">
+      <c r="K383" t="s">
+        <v>895</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" hidden="1">
       <c r="A384" t="s">
         <v>1</v>
       </c>
@@ -32050,8 +34404,14 @@
       <c r="J384" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="385" spans="1:10">
+      <c r="K384" t="s">
+        <v>895</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" hidden="1">
       <c r="A385" t="s">
         <v>1</v>
       </c>
@@ -32083,8 +34443,14 @@
       <c r="J385" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="386" spans="1:10">
+      <c r="K385" t="s">
+        <v>895</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" hidden="1">
       <c r="A386" t="s">
         <v>1</v>
       </c>
@@ -32116,8 +34482,14 @@
       <c r="J386" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="387" spans="1:10">
+      <c r="K386" t="s">
+        <v>895</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" hidden="1">
       <c r="A387" t="s">
         <v>1</v>
       </c>
@@ -32149,8 +34521,14 @@
       <c r="J387" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="388" spans="1:10">
+      <c r="K387" t="s">
+        <v>895</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
       <c r="A388" t="s">
         <v>60</v>
       </c>
@@ -32179,8 +34557,14 @@
       <c r="I388">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="389" spans="1:10">
+      <c r="K388" t="s">
+        <v>921</v>
+      </c>
+      <c r="L388" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
       <c r="A389" t="s">
         <v>60</v>
       </c>
@@ -32209,8 +34593,14 @@
       <c r="I389">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="390" spans="1:10">
+      <c r="K389" t="s">
+        <v>921</v>
+      </c>
+      <c r="L389" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
       <c r="A390" t="s">
         <v>60</v>
       </c>
@@ -32239,8 +34629,14 @@
       <c r="I390">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="391" spans="1:10">
+      <c r="K390" t="s">
+        <v>921</v>
+      </c>
+      <c r="L390" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
       <c r="A391" t="s">
         <v>60</v>
       </c>
@@ -32269,8 +34665,14 @@
       <c r="I391">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="392" spans="1:10">
+      <c r="K391" t="s">
+        <v>921</v>
+      </c>
+      <c r="L391" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
       <c r="A392" t="s">
         <v>60</v>
       </c>
@@ -32299,8 +34701,14 @@
       <c r="I392">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="393" spans="1:10">
+      <c r="K392" t="s">
+        <v>921</v>
+      </c>
+      <c r="L392" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" hidden="1">
       <c r="A393" t="s">
         <v>60</v>
       </c>
@@ -32330,7 +34738,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:12" hidden="1">
       <c r="A394" t="s">
         <v>60</v>
       </c>
@@ -32360,7 +34768,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:12" hidden="1">
       <c r="A395" t="s">
         <v>60</v>
       </c>
@@ -32390,7 +34798,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:12" hidden="1">
       <c r="A396" t="s">
         <v>60</v>
       </c>
@@ -32420,7 +34828,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:12" hidden="1">
       <c r="A397" t="s">
         <v>60</v>
       </c>
@@ -32450,7 +34858,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:12" hidden="1">
       <c r="A398" t="s">
         <v>60</v>
       </c>
@@ -32480,7 +34888,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:12">
       <c r="A399" t="s">
         <v>61</v>
       </c>
@@ -32509,8 +34917,14 @@
       <c r="I399">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:10">
+      <c r="K399" t="s">
+        <v>921</v>
+      </c>
+      <c r="L399" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
       <c r="A400" t="s">
         <v>61</v>
       </c>
@@ -32539,8 +34953,14 @@
       <c r="I400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:9">
+      <c r="K400" t="s">
+        <v>921</v>
+      </c>
+      <c r="L400" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
       <c r="A401" t="s">
         <v>61</v>
       </c>
@@ -32569,8 +34989,14 @@
       <c r="I401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:9">
+      <c r="K401" t="s">
+        <v>921</v>
+      </c>
+      <c r="L401" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
       <c r="A402" t="s">
         <v>61</v>
       </c>
@@ -32599,8 +35025,14 @@
       <c r="I402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:9">
+      <c r="K402" t="s">
+        <v>921</v>
+      </c>
+      <c r="L402" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
       <c r="A403" t="s">
         <v>61</v>
       </c>
@@ -32629,8 +35061,14 @@
       <c r="I403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:9">
+      <c r="K403" t="s">
+        <v>921</v>
+      </c>
+      <c r="L403" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" hidden="1">
       <c r="A404" t="s">
         <v>61</v>
       </c>
@@ -32660,7 +35098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:12" hidden="1">
       <c r="A405" t="s">
         <v>61</v>
       </c>
@@ -32690,7 +35128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:12" hidden="1">
       <c r="A406" t="s">
         <v>61</v>
       </c>
@@ -32720,7 +35158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:12" hidden="1">
       <c r="A407" t="s">
         <v>61</v>
       </c>
@@ -32750,7 +35188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:12" hidden="1">
       <c r="A408" t="s">
         <v>61</v>
       </c>
@@ -32780,7 +35218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:12" hidden="1">
       <c r="A409" t="s">
         <v>61</v>
       </c>
@@ -32811,10 +35249,32 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{769A0B8C-A8A1-48FF-94F3-77F257B71EC1}"/>
+    <hyperlink ref="L3:L15" r:id="rId2" display="https://www.pge.com/" xr:uid="{B2D7A309-0A77-4E55-9570-0A8FE70D8B4E}"/>
+    <hyperlink ref="L44:L52" r:id="rId3" display="https://www.pge.com/" xr:uid="{C8674C1C-9251-4F8A-901C-1A960B664D7B}"/>
+    <hyperlink ref="L71:L82" r:id="rId4" display="https://www.pge.com/" xr:uid="{B317D5FB-65DF-40DB-A8A4-5C3C3792D81D}"/>
+    <hyperlink ref="L107:L120" r:id="rId5" display="https://www.pge.com/" xr:uid="{053069B8-1ADE-4B46-AD9B-7B3F94D44381}"/>
+    <hyperlink ref="L149:L154" r:id="rId6" display="https://www.pge.com/" xr:uid="{40EE55A6-FB68-4840-9EEF-2E7E9B8CE3D4}"/>
+    <hyperlink ref="L167:L178" r:id="rId7" display="https://www.pge.com/" xr:uid="{B33B823B-E2FC-4885-9963-9EF642F7A7E6}"/>
+    <hyperlink ref="L203:L216" r:id="rId8" display="https://www.pge.com/" xr:uid="{023C6818-A9EA-48FE-9001-D9B4A30D4391}"/>
+    <hyperlink ref="L231:L234" r:id="rId9" display="https://www.pge.com/" xr:uid="{09B8ABD8-D28A-4002-9813-4180A078FDB5}"/>
+    <hyperlink ref="L239:L249" r:id="rId10" display="https://www.pge.com/" xr:uid="{AA207F35-1281-426F-8893-E19644CE78A4}"/>
+    <hyperlink ref="L272:L282" r:id="rId11" display="https://www.pge.com/" xr:uid="{C517E1D5-71FC-4434-8300-943F82444F1C}"/>
+    <hyperlink ref="L305:L314" r:id="rId12" display="https://www.pge.com/" xr:uid="{BF4A1CBA-A108-42DE-9E27-FF44858F74F4}"/>
+    <hyperlink ref="L335:L348" r:id="rId13" display="https://www.pge.com/" xr:uid="{A232D01D-7B68-42AE-928F-AC2C17E8EBCE}"/>
+    <hyperlink ref="L377:L387" r:id="rId14" display="https://www.pge.com/" xr:uid="{A28BD0A4-D9DF-4A71-ADBF-C23A1C980ABD}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{D6A035BE-6B7F-49C4-A329-5DCD630F11C8}"/>
+    <hyperlink ref="L17:L24" r:id="rId16" display="https://avaenergy.org/change-my-plan/" xr:uid="{90CC1846-8386-4B81-A035-6933650BA14B}"/>
+    <hyperlink ref="L30:L38" r:id="rId17" display="https://avaenergy.org/change-my-plan/" xr:uid="{B1E17C64-4325-4E6A-A46B-51300BAAF07D}"/>
+    <hyperlink ref="L164" r:id="rId18" xr:uid="{DF566F6A-B6F0-479C-AB16-C7CBBD786181}"/>
+    <hyperlink ref="K217" r:id="rId19" display="tel:1-877-455-2223" xr:uid="{B2565F93-BD0D-46C7-8B76-58E07F320F88}"/>
+    <hyperlink ref="K218:K224" r:id="rId20" display="tel:1-877-455-2223" xr:uid="{B32F8906-A11B-47F8-8DFD-7ACBC0071E89}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
@@ -32827,18 +35287,18 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.26953125" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -37335,36 +39795,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB37B77-99CE-44F2-93F7-0E4FB0E2ED7E}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1"/>
+    <col min="16" max="16" width="26.26953125" customWidth="1"/>
     <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="29.81640625" customWidth="1"/>
+    <col min="19" max="19" width="31.26953125" customWidth="1"/>
     <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="27.7109375" customWidth="1"/>
-    <col min="22" max="22" width="29.28515625" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" customWidth="1"/>
-    <col min="24" max="24" width="23.5703125" customWidth="1"/>
-    <col min="25" max="25" width="46.85546875" customWidth="1"/>
+    <col min="21" max="21" width="27.7265625" customWidth="1"/>
+    <col min="22" max="22" width="29.26953125" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" customWidth="1"/>
+    <col min="24" max="24" width="23.54296875" customWidth="1"/>
+    <col min="25" max="25" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">

--- a/decarbonize/Electricity Rate Plan.xlsx
+++ b/decarbonize/Electricity Rate Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pragn\OneDrive\Desktop\CarbonSustain\ai-apps\decarbonize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1B214-8B9B-45DC-A86C-2522431AD87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF2A422-6B06-4CFD-8661-0DD9BBCE8AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -20736,8 +20727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7BF5F5-9B64-444F-8807-74F4F2EE40E4}">
   <dimension ref="A1:L409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/decarbonize/Electricity Rate Plan.xlsx
+++ b/decarbonize/Electricity Rate Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pragn\OneDrive\Desktop\CarbonSustain\ai-apps\decarbonize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1F2FE2-C7D1-4818-8B95-807106CB6313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF2C613-B688-48C3-9CC2-A227830AE853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1136,7 +1127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6764" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6999" uniqueCount="938">
   <si>
     <t>Electrical Company Name</t>
   </si>
@@ -4258,13 +4249,57 @@
   </si>
   <si>
     <t>Renewable Percentages</t>
+  </si>
+  <si>
+    <t>Local communities established Central Coast Community Energy (3CE) to source clean and renewable electricity at competitive prices for customers throughout Monterey, San Benito, San Luis Obispo, Santa Cruz, and Santa Barbara counties. 3CE is locally controlled and governed by board members who represent each community served by the agency. </t>
+  </si>
+  <si>
+    <t>Ava Community Energy (Ava) exists to provide more renewable energy at competitive rates to our customers. We reinvest the earnings back into the community to create local green energy jobs, local programs, and clean power projects. We supply electricity to all accounts (residential, business, and municipal) and PG&amp;E delivers it to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CleanPowerSF is a local solution to the climate crisis, offering renewable, affordable and accessible energy to 385,000 customers across San Francisco. A program of the San Francisco Public Utilities Commission, we empower residents and businesses to choose a more sustainable future, today.
+The San Francisco Public Utilities Commission has provided clean, publicly owned power to San Francisco for more than 100 years. To take control of its energy future, San Francisco is pursuing public ownership of the electricity grid. </t>
+  </si>
+  <si>
+    <t>As of 2020, 100% of energy from KCCP is attributable to eligible renewable sources. KCCP is proud to have sponsored over a dozen roof-top solar installations, in partnership with Grid Alternatives, in King City.  That is more than approximately 42 kW of clean power for families in our community! In addition, KCCP has aided in the installation of lights and streetlights throughout the community. We anticipate more installations to be completed by the end of this year.</t>
+  </si>
+  <si>
+    <t>Since 2010, MCE has set the standard for clean energy in California. Our team is dedicated to fostering an equitable, clean, affordable, and reliable energy economy, guided by a commitment to our community. MCE is governed by a board of local elected officials who ensure our work reflects the unique needs of all our member communities.</t>
+  </si>
+  <si>
+    <t>Deliver 100% renewable energy annually by 2030 while maximizing 24/7 energy matching on a time-coincident hourly basis 
+Contribute to Peninsula Clean Energy member jurisdictions reaching the State’s 2045 goal to be 100% greenhouse-gas free for transportation and building electrification by 2035</t>
+  </si>
+  <si>
+    <t>PG&amp;E is a utility company focused on clean energy solutions, infrastructure improvements, and sustainability efforts, aiming to reduce carbon emissions and offer reliable energy to homes and businesses.</t>
+  </si>
+  <si>
+    <t>Pioneer Community Energy is a locally owned provider of electricity — powering the communities we serve with competitive rates, exceptional service and a choice in energy options.</t>
+  </si>
+  <si>
+    <t>All of Redwood Energy’s multifamily developments are mixed-use, with offices, public transit hubs, retail, childcare facilities, restaurants, laundromats, and similar uses in addition to apartments. Redwood Energy maintains records of construction cost bids for HVAC, Hot Water, Solar Arrays and Appliances, and we help lower costs for our affordable housing clients with recommendations grounded in real-world costs. This data has also proven valuable to organizations like the Sierra Club, NRDC, RMI, PG&amp;E, SDG&amp;E and the California Energy Commission. Redwood Energy also has the largest database of circuit-level monitored residential energy use in North America—we have studied the second-by-second use of all circuits in 510 units in 9 developments since 2014. With this data we help our affordable housing clients design wisely, as well as publish in building science journals and support Code making bodies.</t>
+  </si>
+  <si>
+    <t>SCP offers cleaner electricity, stable rates, and energy-saving programs to help improve the quality of life of all our customers, today and for years to come.</t>
+  </si>
+  <si>
+    <t>As a Community Choice Energy program, we’re committed to adding renewable energy to the grid and finding solutions to improve reliability for the health of our customers and planet.We build and source clean electricity for you so just by being our customer, you’re helping to improve air quality, reduce pollution, and fight climate change.</t>
+  </si>
+  <si>
+    <t>With clean electricity provided by Silicon Valley Clean Energy you have the power to make all-electric choices that help fight climate change and build a cleaner, greener Silicon Valley for everyone.</t>
+  </si>
+  <si>
+    <t>VCE is a member of California Community Choice Association (CalCCA), a network of 24 not-for-profit agencies serving more than 14 million customers. Together, we’ve helped the state add more than 7,000 megawatts of solar power (enough to supply 1.1 million households!), plus 1,500 MW of wind power and 5,000 MW of battery storage.</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4305,6 +4340,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF485B60"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1C120A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4328,11 +4405,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4421,21 +4514,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}" name="Table2" displayName="Table2" ref="A1:M409" totalsRowShown="0">
-  <autoFilter ref="A1:M409" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}" name="Table2" displayName="Table2" ref="A1:N409" totalsRowShown="0">
+  <autoFilter ref="A1:N409" xr:uid="{4CC1D34B-0D0B-4311-9AE6-96EE638A25F4}">
     <filterColumn colId="2">
       <filters>
         <filter val="Large Commercial and Industrial"/>
         <filter val="Small and Medium Business"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="B-1"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{95A6D370-15B8-4E34-8058-3D30C47AABFB}" name="Electrical Company Name"/>
     <tableColumn id="14" xr3:uid="{8C89D76B-F5FA-4EC2-8278-1F1F384DA4D2}" name="Renewable Percentages"/>
     <tableColumn id="2" xr3:uid="{4C0038AE-8AE8-4E4E-9EE2-4E70F164FB26}" name="Sector"/>
@@ -4450,6 +4538,7 @@
     <tableColumn id="9" xr3:uid="{65084CA2-94E3-4C14-9CBD-C3E7CBD0EE7C}" name="Renewable Energy Percentage"/>
     <tableColumn id="10" xr3:uid="{0C53E956-FC84-48A9-9575-E8A57FB61F00}" name="CO2 pounds per Mwh"/>
     <tableColumn id="11" xr3:uid="{3FB9BC6D-8843-4EBE-A055-6A9A12E89879}" name="Phone Number of provider"/>
+    <tableColumn id="13" xr3:uid="{1FBE70D9-565D-4CC4-A37E-FFB81A3BA3E9}" name="Description"/>
     <tableColumn id="12" xr3:uid="{6D33DD9F-46BD-457F-BDA0-134D3081E8F8}" name="URL of the provider"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -20743,10 +20832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7BF5F5-9B64-444F-8807-74F4F2EE40E4}">
-  <dimension ref="A1:M409"/>
+  <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection sqref="A1:A409"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20761,11 +20850,11 @@
     <col min="9" max="9" width="18.453125" customWidth="1"/>
     <col min="10" max="10" width="31.26953125" customWidth="1"/>
     <col min="11" max="11" width="22.1796875" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" customWidth="1"/>
-    <col min="13" max="13" width="34.6328125" customWidth="1"/>
+    <col min="12" max="13" width="21.54296875" customWidth="1"/>
+    <col min="14" max="14" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20803,10 +20892,13 @@
         <v>894</v>
       </c>
       <c r="M1" t="s">
+        <v>937</v>
+      </c>
+      <c r="N1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -20844,11 +20936,14 @@
       <c r="L2" t="s">
         <v>895</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>930</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -20886,11 +20981,14 @@
       <c r="L3" t="s">
         <v>895</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>930</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -20928,11 +21026,14 @@
       <c r="L4" t="s">
         <v>895</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>930</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -20970,11 +21071,14 @@
       <c r="L5" t="s">
         <v>895</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
+        <v>930</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -21012,11 +21116,14 @@
       <c r="L6" t="s">
         <v>895</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>930</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -21054,11 +21161,14 @@
       <c r="L7" t="s">
         <v>895</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
+        <v>930</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -21096,11 +21206,14 @@
       <c r="L8" t="s">
         <v>895</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>930</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -21138,11 +21251,14 @@
       <c r="L9" t="s">
         <v>895</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
+        <v>930</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -21180,11 +21296,14 @@
       <c r="L10" t="s">
         <v>895</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
+        <v>930</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -21219,11 +21338,11 @@
       <c r="L11" t="s">
         <v>895</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -21258,11 +21377,11 @@
       <c r="L12" t="s">
         <v>895</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -21297,11 +21416,11 @@
       <c r="L13" t="s">
         <v>895</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -21336,11 +21455,11 @@
       <c r="L14" t="s">
         <v>895</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -21375,11 +21494,11 @@
       <c r="L15" t="s">
         <v>895</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -21414,11 +21533,14 @@
       <c r="L16" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -21453,11 +21575,14 @@
       <c r="L17" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -21492,11 +21617,14 @@
       <c r="L18" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -21531,11 +21659,14 @@
       <c r="L19" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -21570,11 +21701,14 @@
       <c r="L20" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -21609,11 +21743,14 @@
       <c r="L21" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -21648,11 +21785,14 @@
       <c r="L22" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -21687,11 +21827,14 @@
       <c r="L23" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -21726,11 +21869,14 @@
       <c r="L24" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -21760,7 +21906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -21790,7 +21936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -21820,7 +21966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -21850,7 +21996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -21880,7 +22026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -21915,11 +22061,14 @@
       <c r="L30" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -21954,11 +22103,14 @@
       <c r="L31" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -21993,11 +22145,14 @@
       <c r="L32" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -22032,11 +22187,14 @@
       <c r="L33" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -22071,11 +22229,14 @@
       <c r="L34" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -22110,11 +22271,14 @@
       <c r="L35" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -22149,11 +22313,14 @@
       <c r="L36" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -22188,11 +22355,14 @@
       <c r="L37" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -22227,11 +22397,14 @@
       <c r="L38" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:14" hidden="1">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -22261,7 +22434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:14" hidden="1">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -22291,7 +22464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:14" hidden="1">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -22321,7 +22494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:14" hidden="1">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -22351,7 +22524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:14" hidden="1">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -22381,7 +22554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -22419,11 +22592,14 @@
       <c r="L44" t="s">
         <v>895</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" t="s">
+        <v>930</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -22461,11 +22637,14 @@
       <c r="L45" t="s">
         <v>895</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" t="s">
+        <v>930</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -22503,11 +22682,14 @@
       <c r="L46" t="s">
         <v>895</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" t="s">
+        <v>930</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -22545,11 +22727,14 @@
       <c r="L47" t="s">
         <v>895</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" t="s">
+        <v>930</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -22587,11 +22772,14 @@
       <c r="L48" t="s">
         <v>895</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" t="s">
+        <v>930</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -22629,11 +22817,14 @@
       <c r="L49" t="s">
         <v>895</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" t="s">
+        <v>930</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -22671,11 +22862,14 @@
       <c r="L50" t="s">
         <v>895</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" t="s">
+        <v>930</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -22710,11 +22904,11 @@
       <c r="L51" t="s">
         <v>895</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -22749,11 +22943,11 @@
       <c r="L52" t="s">
         <v>895</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:14" ht="377">
       <c r="A53" t="s">
         <v>899</v>
       </c>
@@ -22788,11 +22982,14 @@
       <c r="L53" t="s">
         <v>898</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N53" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14" ht="377">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -22827,11 +23024,14 @@
       <c r="L54" t="s">
         <v>898</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N54" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:14" ht="377">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -22866,11 +23066,14 @@
       <c r="L55" t="s">
         <v>898</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N55" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:14" ht="377">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -22905,11 +23108,14 @@
       <c r="L56" t="s">
         <v>898</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N56" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:14" ht="377">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -22944,11 +23150,14 @@
       <c r="L57" t="s">
         <v>898</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N57" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:14" ht="377">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -22983,11 +23192,14 @@
       <c r="L58" t="s">
         <v>898</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N58" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:14" ht="377">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -23022,11 +23234,14 @@
       <c r="L59" t="s">
         <v>898</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N59" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:14" hidden="1">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -23056,7 +23271,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:14" hidden="1">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -23086,7 +23301,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:14" ht="377">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -23121,11 +23336,14 @@
       <c r="L62" t="s">
         <v>898</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N62" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14" ht="377">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -23160,11 +23378,14 @@
       <c r="L63" t="s">
         <v>898</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N63" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:14" ht="377">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -23199,11 +23420,14 @@
       <c r="L64" t="s">
         <v>898</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N64" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:14" ht="377">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -23238,11 +23462,14 @@
       <c r="L65" t="s">
         <v>898</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N65" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:14" ht="377">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -23277,11 +23504,14 @@
       <c r="L66" t="s">
         <v>898</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N66" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:14" ht="377">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -23316,11 +23546,14 @@
       <c r="L67" t="s">
         <v>898</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N67" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:14" ht="377">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -23355,11 +23588,14 @@
       <c r="L68" t="s">
         <v>898</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N68" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:14" hidden="1">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -23389,7 +23625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:14" hidden="1">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -23419,7 +23655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -23457,11 +23693,11 @@
       <c r="L71" t="s">
         <v>895</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -23499,11 +23735,11 @@
       <c r="L72" t="s">
         <v>895</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -23541,11 +23777,11 @@
       <c r="L73" t="s">
         <v>895</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -23583,11 +23819,11 @@
       <c r="L74" t="s">
         <v>895</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -23625,11 +23861,11 @@
       <c r="L75" t="s">
         <v>895</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -23667,11 +23903,11 @@
       <c r="L76" t="s">
         <v>895</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:14" hidden="1">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -23706,11 +23942,11 @@
       <c r="L77" t="s">
         <v>895</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:14" hidden="1">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -23745,11 +23981,11 @@
       <c r="L78" t="s">
         <v>895</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:14" hidden="1">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -23784,11 +24020,11 @@
       <c r="L79" t="s">
         <v>895</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:14" hidden="1">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -23823,11 +24059,11 @@
       <c r="L80" t="s">
         <v>895</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:14" hidden="1">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -23862,11 +24098,11 @@
       <c r="L81" t="s">
         <v>895</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:14" hidden="1">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -23901,11 +24137,11 @@
       <c r="L82" t="s">
         <v>895</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:14" ht="87.5">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -23940,11 +24176,14 @@
       <c r="L83" t="s">
         <v>901</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N83" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:14" ht="87.5">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -23979,11 +24218,14 @@
       <c r="L84" t="s">
         <v>901</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N84" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:14" ht="87.5">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -24018,11 +24260,14 @@
       <c r="L85" t="s">
         <v>901</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N85" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:14" ht="87.5">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -24057,11 +24302,14 @@
       <c r="L86" t="s">
         <v>901</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N86" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:14" ht="87.5">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -24096,11 +24344,14 @@
       <c r="L87" t="s">
         <v>901</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N87" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:14" ht="87.5">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -24135,11 +24386,14 @@
       <c r="L88" t="s">
         <v>901</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N88" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:14" hidden="1">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -24169,7 +24423,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:14" hidden="1">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -24199,7 +24453,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:14" hidden="1">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -24229,7 +24483,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:14" hidden="1">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -24259,7 +24513,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:14" hidden="1">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -24289,7 +24543,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:14" hidden="1">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -24319,7 +24573,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:14" ht="87.5">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -24354,11 +24608,14 @@
       <c r="L95" t="s">
         <v>901</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N95" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:14" ht="87.5">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -24393,11 +24650,14 @@
       <c r="L96" t="s">
         <v>901</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N96" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:14" ht="87.5">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -24432,11 +24692,14 @@
       <c r="L97" t="s">
         <v>901</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N97" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:14" ht="87.5">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -24471,11 +24734,14 @@
       <c r="L98" t="s">
         <v>901</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N98" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:14" ht="87.5">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -24510,11 +24776,14 @@
       <c r="L99" t="s">
         <v>901</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N99" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:14" ht="87.5">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -24549,11 +24818,14 @@
       <c r="L100" t="s">
         <v>901</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N100" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:14" hidden="1">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -24583,7 +24855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1">
+    <row r="102" spans="1:14" hidden="1">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -24613,7 +24885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:14" hidden="1">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -24643,7 +24915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:14" hidden="1">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -24673,7 +24945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1">
+    <row r="105" spans="1:14" hidden="1">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -24703,7 +24975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1">
+    <row r="106" spans="1:14" hidden="1">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -24733,7 +25005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -24771,11 +25043,14 @@
       <c r="L107" t="s">
         <v>895</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="M107" t="s">
+        <v>930</v>
+      </c>
+      <c r="N107" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -24813,11 +25088,14 @@
       <c r="L108" t="s">
         <v>895</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="M108" t="s">
+        <v>930</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -24855,11 +25133,14 @@
       <c r="L109" t="s">
         <v>895</v>
       </c>
-      <c r="M109" s="1" t="s">
+      <c r="M109" t="s">
+        <v>930</v>
+      </c>
+      <c r="N109" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -24897,11 +25178,14 @@
       <c r="L110" t="s">
         <v>895</v>
       </c>
-      <c r="M110" s="1" t="s">
+      <c r="M110" t="s">
+        <v>930</v>
+      </c>
+      <c r="N110" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -24939,11 +25223,14 @@
       <c r="L111" t="s">
         <v>895</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="M111" t="s">
+        <v>930</v>
+      </c>
+      <c r="N111" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -24981,11 +25268,14 @@
       <c r="L112" t="s">
         <v>895</v>
       </c>
-      <c r="M112" s="1" t="s">
+      <c r="M112" t="s">
+        <v>930</v>
+      </c>
+      <c r="N112" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -25023,11 +25313,14 @@
       <c r="L113" t="s">
         <v>895</v>
       </c>
-      <c r="M113" s="1" t="s">
+      <c r="M113" t="s">
+        <v>930</v>
+      </c>
+      <c r="N113" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -25065,11 +25358,14 @@
       <c r="L114" t="s">
         <v>895</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="M114" t="s">
+        <v>930</v>
+      </c>
+      <c r="N114" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:14" hidden="1">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -25104,11 +25400,11 @@
       <c r="L115" t="s">
         <v>895</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:14" hidden="1">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -25143,11 +25439,11 @@
       <c r="L116" t="s">
         <v>895</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:14" hidden="1">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -25182,11 +25478,11 @@
       <c r="L117" t="s">
         <v>895</v>
       </c>
-      <c r="M117" s="1" t="s">
+      <c r="N117" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:14" hidden="1">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -25221,11 +25517,11 @@
       <c r="L118" t="s">
         <v>895</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="N118" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:14" hidden="1">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -25260,11 +25556,11 @@
       <c r="L119" t="s">
         <v>895</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:14" hidden="1">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -25299,11 +25595,11 @@
       <c r="L120" t="s">
         <v>895</v>
       </c>
-      <c r="M120" s="1" t="s">
+      <c r="N120" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -25339,10 +25635,13 @@
         <v>905</v>
       </c>
       <c r="M121" t="s">
+        <v>928</v>
+      </c>
+      <c r="N121" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -25378,10 +25677,13 @@
         <v>905</v>
       </c>
       <c r="M122" t="s">
+        <v>928</v>
+      </c>
+      <c r="N122" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -25417,10 +25719,13 @@
         <v>905</v>
       </c>
       <c r="M123" t="s">
+        <v>928</v>
+      </c>
+      <c r="N123" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -25456,10 +25761,13 @@
         <v>905</v>
       </c>
       <c r="M124" t="s">
+        <v>928</v>
+      </c>
+      <c r="N124" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -25495,10 +25803,13 @@
         <v>905</v>
       </c>
       <c r="M125" t="s">
+        <v>928</v>
+      </c>
+      <c r="N125" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -25534,10 +25845,13 @@
         <v>905</v>
       </c>
       <c r="M126" t="s">
+        <v>928</v>
+      </c>
+      <c r="N126" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1">
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -25573,10 +25887,13 @@
         <v>905</v>
       </c>
       <c r="M127" t="s">
+        <v>928</v>
+      </c>
+      <c r="N127" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1">
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -25612,10 +25929,13 @@
         <v>905</v>
       </c>
       <c r="M128" t="s">
+        <v>928</v>
+      </c>
+      <c r="N128" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:14" hidden="1">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -25645,7 +25965,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:14" hidden="1">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -25675,7 +25995,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:14" hidden="1">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -25705,7 +26025,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:14" hidden="1">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -25735,7 +26055,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:14" hidden="1">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -25765,7 +26085,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:14" hidden="1">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -25795,7 +26115,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -25831,10 +26151,13 @@
         <v>905</v>
       </c>
       <c r="M135" t="s">
+        <v>928</v>
+      </c>
+      <c r="N135" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -25870,10 +26193,13 @@
         <v>905</v>
       </c>
       <c r="M136" t="s">
+        <v>928</v>
+      </c>
+      <c r="N136" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -25909,10 +26235,13 @@
         <v>905</v>
       </c>
       <c r="M137" t="s">
+        <v>928</v>
+      </c>
+      <c r="N137" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -25948,10 +26277,13 @@
         <v>905</v>
       </c>
       <c r="M138" t="s">
+        <v>928</v>
+      </c>
+      <c r="N138" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -25987,10 +26319,13 @@
         <v>905</v>
       </c>
       <c r="M139" t="s">
+        <v>928</v>
+      </c>
+      <c r="N139" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -26026,10 +26361,13 @@
         <v>905</v>
       </c>
       <c r="M140" t="s">
+        <v>928</v>
+      </c>
+      <c r="N140" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -26065,10 +26403,13 @@
         <v>905</v>
       </c>
       <c r="M141" t="s">
+        <v>928</v>
+      </c>
+      <c r="N141" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -26104,10 +26445,13 @@
         <v>905</v>
       </c>
       <c r="M142" t="s">
+        <v>928</v>
+      </c>
+      <c r="N142" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:14" hidden="1">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -26137,7 +26481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:14" hidden="1">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -26167,7 +26511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:14" hidden="1">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -26197,7 +26541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:14" hidden="1">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -26227,7 +26571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:14" hidden="1">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -26257,7 +26601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:14" hidden="1">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -26287,7 +26631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -26325,11 +26669,14 @@
       <c r="L149" t="s">
         <v>895</v>
       </c>
-      <c r="M149" s="1" t="s">
+      <c r="M149" t="s">
+        <v>930</v>
+      </c>
+      <c r="N149" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -26367,11 +26714,14 @@
       <c r="L150" t="s">
         <v>895</v>
       </c>
-      <c r="M150" s="1" t="s">
+      <c r="M150" t="s">
+        <v>930</v>
+      </c>
+      <c r="N150" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -26409,11 +26759,14 @@
       <c r="L151" t="s">
         <v>895</v>
       </c>
-      <c r="M151" s="1" t="s">
+      <c r="M151" t="s">
+        <v>930</v>
+      </c>
+      <c r="N151" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -26451,11 +26804,14 @@
       <c r="L152" t="s">
         <v>895</v>
       </c>
-      <c r="M152" s="1" t="s">
+      <c r="M152" t="s">
+        <v>930</v>
+      </c>
+      <c r="N152" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -26493,11 +26849,14 @@
       <c r="L153" t="s">
         <v>895</v>
       </c>
-      <c r="M153" s="1" t="s">
+      <c r="M153" t="s">
+        <v>930</v>
+      </c>
+      <c r="N153" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:14" hidden="1">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -26532,11 +26891,11 @@
       <c r="L154" t="s">
         <v>895</v>
       </c>
-      <c r="M154" s="1" t="s">
+      <c r="N154" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1">
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -26572,10 +26931,13 @@
         <v>909</v>
       </c>
       <c r="M155" t="s">
+        <v>930</v>
+      </c>
+      <c r="N155" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -26611,10 +26973,13 @@
         <v>909</v>
       </c>
       <c r="M156" t="s">
+        <v>930</v>
+      </c>
+      <c r="N156" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1">
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -26650,10 +27015,13 @@
         <v>909</v>
       </c>
       <c r="M157" t="s">
+        <v>930</v>
+      </c>
+      <c r="N157" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1">
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -26689,10 +27057,13 @@
         <v>909</v>
       </c>
       <c r="M158" t="s">
+        <v>930</v>
+      </c>
+      <c r="N158" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -26728,10 +27099,13 @@
         <v>909</v>
       </c>
       <c r="M159" t="s">
+        <v>930</v>
+      </c>
+      <c r="N159" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1">
+    <row r="160" spans="1:14" hidden="1">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -26761,7 +27135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1">
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>40</v>
       </c>
@@ -26797,10 +27171,13 @@
         <v>909</v>
       </c>
       <c r="M161" t="s">
+        <v>930</v>
+      </c>
+      <c r="N161" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:14" ht="217.5">
       <c r="A162" t="s">
         <v>40</v>
       </c>
@@ -26835,11 +27212,14 @@
       <c r="L162" t="s">
         <v>909</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N162" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:14" ht="217.5">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -26874,11 +27254,14 @@
       <c r="L163" t="s">
         <v>909</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N163" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:14" ht="217.5">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -26913,11 +27296,14 @@
       <c r="L164" t="s">
         <v>909</v>
       </c>
-      <c r="M164" s="1" t="s">
+      <c r="M164" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N164" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:14" ht="217.5">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -26952,11 +27338,14 @@
       <c r="L165" t="s">
         <v>909</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N165" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1">
+    <row r="166" spans="1:14" hidden="1">
       <c r="A166" t="s">
         <v>40</v>
       </c>
@@ -26986,7 +27375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -27024,11 +27413,14 @@
       <c r="L167" t="s">
         <v>895</v>
       </c>
-      <c r="M167" s="1" t="s">
+      <c r="M167" t="s">
+        <v>930</v>
+      </c>
+      <c r="N167" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -27066,11 +27458,14 @@
       <c r="L168" t="s">
         <v>895</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="M168" t="s">
+        <v>930</v>
+      </c>
+      <c r="N168" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1">
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -27108,11 +27503,14 @@
       <c r="L169" t="s">
         <v>895</v>
       </c>
-      <c r="M169" s="1" t="s">
+      <c r="M169" t="s">
+        <v>930</v>
+      </c>
+      <c r="N169" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -27150,11 +27548,14 @@
       <c r="L170" t="s">
         <v>895</v>
       </c>
-      <c r="M170" s="1" t="s">
+      <c r="M170" t="s">
+        <v>930</v>
+      </c>
+      <c r="N170" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1">
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -27192,11 +27593,14 @@
       <c r="L171" t="s">
         <v>895</v>
       </c>
-      <c r="M171" s="1" t="s">
+      <c r="M171" t="s">
+        <v>930</v>
+      </c>
+      <c r="N171" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1">
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -27234,11 +27638,14 @@
       <c r="L172" t="s">
         <v>895</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="M172" t="s">
+        <v>930</v>
+      </c>
+      <c r="N172" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:14" hidden="1">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -27273,11 +27680,11 @@
       <c r="L173" t="s">
         <v>895</v>
       </c>
-      <c r="M173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1">
+    <row r="174" spans="1:14" hidden="1">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -27312,11 +27719,11 @@
       <c r="L174" t="s">
         <v>895</v>
       </c>
-      <c r="M174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1">
+    <row r="175" spans="1:14" hidden="1">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -27351,11 +27758,11 @@
       <c r="L175" t="s">
         <v>895</v>
       </c>
-      <c r="M175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1">
+    <row r="176" spans="1:14" hidden="1">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -27390,11 +27797,11 @@
       <c r="L176" t="s">
         <v>895</v>
       </c>
-      <c r="M176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1">
+    <row r="177" spans="1:14" hidden="1">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -27429,11 +27836,11 @@
       <c r="L177" t="s">
         <v>895</v>
       </c>
-      <c r="M177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1">
+    <row r="178" spans="1:14" hidden="1">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -27468,11 +27875,11 @@
       <c r="L178" t="s">
         <v>895</v>
       </c>
-      <c r="M178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1">
+    <row r="179" spans="1:14" ht="217.5">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -27507,11 +27914,14 @@
       <c r="L179" t="s">
         <v>909</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N179" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:14" ht="217.5">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -27546,11 +27956,14 @@
       <c r="L180" t="s">
         <v>909</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N180" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1">
+    <row r="181" spans="1:14" ht="217.5">
       <c r="A181" t="s">
         <v>39</v>
       </c>
@@ -27585,11 +27998,14 @@
       <c r="L181" t="s">
         <v>909</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N181" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1">
+    <row r="182" spans="1:14" ht="217.5">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -27624,11 +28040,14 @@
       <c r="L182" t="s">
         <v>909</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N182" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:14" ht="217.5">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -27663,11 +28082,14 @@
       <c r="L183" t="s">
         <v>909</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N183" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1">
+    <row r="184" spans="1:14" ht="217.5">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -27702,11 +28124,14 @@
       <c r="L184" t="s">
         <v>909</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N184" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1">
+    <row r="185" spans="1:14" hidden="1">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -27736,7 +28161,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:14" hidden="1">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -27766,7 +28191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:14" hidden="1">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -27796,7 +28221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1">
+    <row r="188" spans="1:14" hidden="1">
       <c r="A188" t="s">
         <v>39</v>
       </c>
@@ -27826,7 +28251,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1">
+    <row r="189" spans="1:14" hidden="1">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -27856,7 +28281,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1">
+    <row r="190" spans="1:14" hidden="1">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -27886,7 +28311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1">
+    <row r="191" spans="1:14" ht="217.5">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -27921,11 +28346,14 @@
       <c r="L191" t="s">
         <v>909</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N191" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:14" ht="217.5">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -27960,11 +28388,14 @@
       <c r="L192" t="s">
         <v>909</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N192" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:14" ht="217.5">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -27999,11 +28430,14 @@
       <c r="L193" t="s">
         <v>909</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N193" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:14" ht="217.5">
       <c r="A194" t="s">
         <v>40</v>
       </c>
@@ -28038,11 +28472,14 @@
       <c r="L194" t="s">
         <v>909</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N194" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1">
+    <row r="195" spans="1:14" ht="217.5">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -28077,11 +28514,14 @@
       <c r="L195" t="s">
         <v>909</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N195" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1">
+    <row r="196" spans="1:14" ht="217.5">
       <c r="A196" t="s">
         <v>40</v>
       </c>
@@ -28116,11 +28556,14 @@
       <c r="L196" t="s">
         <v>909</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="N196" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:14" hidden="1">
       <c r="A197" t="s">
         <v>40</v>
       </c>
@@ -28150,7 +28593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1">
+    <row r="198" spans="1:14" hidden="1">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -28180,7 +28623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:14" hidden="1">
       <c r="A199" t="s">
         <v>40</v>
       </c>
@@ -28210,7 +28653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:14" hidden="1">
       <c r="A200" t="s">
         <v>40</v>
       </c>
@@ -28240,7 +28683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1">
+    <row r="201" spans="1:14" hidden="1">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -28270,7 +28713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1">
+    <row r="202" spans="1:14" hidden="1">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -28300,7 +28743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:14">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -28338,11 +28781,14 @@
       <c r="L203" t="s">
         <v>895</v>
       </c>
-      <c r="M203" s="1" t="s">
+      <c r="M203" t="s">
+        <v>930</v>
+      </c>
+      <c r="N203" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:14">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -28380,11 +28826,14 @@
       <c r="L204" t="s">
         <v>895</v>
       </c>
-      <c r="M204" s="1" t="s">
+      <c r="M204" t="s">
+        <v>930</v>
+      </c>
+      <c r="N204" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:14">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -28422,11 +28871,14 @@
       <c r="L205" t="s">
         <v>895</v>
       </c>
-      <c r="M205" s="1" t="s">
+      <c r="M205" t="s">
+        <v>930</v>
+      </c>
+      <c r="N205" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1">
+    <row r="206" spans="1:14">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -28464,11 +28916,14 @@
       <c r="L206" t="s">
         <v>895</v>
       </c>
-      <c r="M206" s="1" t="s">
+      <c r="M206" t="s">
+        <v>930</v>
+      </c>
+      <c r="N206" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:14">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -28506,11 +28961,14 @@
       <c r="L207" t="s">
         <v>895</v>
       </c>
-      <c r="M207" s="1" t="s">
+      <c r="M207" t="s">
+        <v>930</v>
+      </c>
+      <c r="N207" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:14">
       <c r="A208" t="s">
         <v>1</v>
       </c>
@@ -28548,11 +29006,14 @@
       <c r="L208" t="s">
         <v>895</v>
       </c>
-      <c r="M208" s="1" t="s">
+      <c r="M208" t="s">
+        <v>930</v>
+      </c>
+      <c r="N208" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1">
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -28590,11 +29051,14 @@
       <c r="L209" t="s">
         <v>895</v>
       </c>
-      <c r="M209" s="1" t="s">
+      <c r="M209" t="s">
+        <v>930</v>
+      </c>
+      <c r="N209" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1">
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -28632,11 +29096,14 @@
       <c r="L210" t="s">
         <v>895</v>
       </c>
-      <c r="M210" s="1" t="s">
+      <c r="M210" t="s">
+        <v>930</v>
+      </c>
+      <c r="N210" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1">
+    <row r="211" spans="1:14" hidden="1">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -28671,11 +29138,11 @@
       <c r="L211" t="s">
         <v>895</v>
       </c>
-      <c r="M211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1">
+    <row r="212" spans="1:14" hidden="1">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -28710,11 +29177,11 @@
       <c r="L212" t="s">
         <v>895</v>
       </c>
-      <c r="M212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:14" hidden="1">
       <c r="A213" t="s">
         <v>1</v>
       </c>
@@ -28749,11 +29216,11 @@
       <c r="L213" t="s">
         <v>895</v>
       </c>
-      <c r="M213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1">
+    <row r="214" spans="1:14" hidden="1">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -28788,11 +29255,11 @@
       <c r="L214" t="s">
         <v>895</v>
       </c>
-      <c r="M214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:14" hidden="1">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -28827,11 +29294,11 @@
       <c r="L215" t="s">
         <v>895</v>
       </c>
-      <c r="M215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1">
+    <row r="216" spans="1:14" hidden="1">
       <c r="A216" t="s">
         <v>1</v>
       </c>
@@ -28866,11 +29333,11 @@
       <c r="L216" t="s">
         <v>895</v>
       </c>
-      <c r="M216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:14" ht="149.5">
       <c r="A217" t="s">
         <v>46</v>
       </c>
@@ -28905,11 +29372,14 @@
       <c r="L217" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N217" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:14" ht="149.5">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -28944,11 +29414,14 @@
       <c r="L218" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N218" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1">
+    <row r="219" spans="1:14" ht="149.5">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -28983,11 +29456,14 @@
       <c r="L219" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N219" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1">
+    <row r="220" spans="1:14" ht="149.5">
       <c r="A220" t="s">
         <v>46</v>
       </c>
@@ -29022,11 +29498,14 @@
       <c r="L220" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N220" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1">
+    <row r="221" spans="1:14" ht="149.5">
       <c r="A221" t="s">
         <v>46</v>
       </c>
@@ -29061,11 +29540,14 @@
       <c r="L221" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N221" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1">
+    <row r="222" spans="1:14" ht="149.5">
       <c r="A222" t="s">
         <v>46</v>
       </c>
@@ -29100,11 +29582,14 @@
       <c r="L222" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N222" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1">
+    <row r="223" spans="1:14" ht="149.5">
       <c r="A223" t="s">
         <v>46</v>
       </c>
@@ -29139,11 +29624,14 @@
       <c r="L223" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N223" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1">
+    <row r="224" spans="1:14" ht="149.5">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -29178,11 +29666,14 @@
       <c r="L224" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N224" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1">
+    <row r="225" spans="1:14" hidden="1">
       <c r="A225" t="s">
         <v>46</v>
       </c>
@@ -29212,7 +29703,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1">
+    <row r="226" spans="1:14" hidden="1">
       <c r="A226" t="s">
         <v>46</v>
       </c>
@@ -29242,7 +29733,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1">
+    <row r="227" spans="1:14" hidden="1">
       <c r="A227" t="s">
         <v>46</v>
       </c>
@@ -29272,7 +29763,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1">
+    <row r="228" spans="1:14" hidden="1">
       <c r="A228" t="s">
         <v>46</v>
       </c>
@@ -29302,7 +29793,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1">
+    <row r="229" spans="1:14" hidden="1">
       <c r="A229" t="s">
         <v>46</v>
       </c>
@@ -29332,7 +29823,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1">
+    <row r="230" spans="1:14" hidden="1">
       <c r="A230" t="s">
         <v>46</v>
       </c>
@@ -29362,7 +29853,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:14">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -29400,11 +29891,14 @@
       <c r="L231" t="s">
         <v>895</v>
       </c>
-      <c r="M231" s="1" t="s">
+      <c r="M231" t="s">
+        <v>930</v>
+      </c>
+      <c r="N231" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1">
+    <row r="232" spans="1:14">
       <c r="A232" t="s">
         <v>1</v>
       </c>
@@ -29442,11 +29936,14 @@
       <c r="L232" t="s">
         <v>895</v>
       </c>
-      <c r="M232" s="1" t="s">
+      <c r="M232" t="s">
+        <v>930</v>
+      </c>
+      <c r="N232" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1">
+    <row r="233" spans="1:14">
       <c r="A233" t="s">
         <v>1</v>
       </c>
@@ -29484,11 +29981,14 @@
       <c r="L233" t="s">
         <v>895</v>
       </c>
-      <c r="M233" s="1" t="s">
+      <c r="M233" t="s">
+        <v>930</v>
+      </c>
+      <c r="N233" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1">
+    <row r="234" spans="1:14">
       <c r="A234" t="s">
         <v>1</v>
       </c>
@@ -29526,11 +30026,14 @@
       <c r="L234" t="s">
         <v>895</v>
       </c>
-      <c r="M234" s="1" t="s">
+      <c r="M234" t="s">
+        <v>930</v>
+      </c>
+      <c r="N234" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:14">
       <c r="A235" t="s">
         <v>49</v>
       </c>
@@ -29566,10 +30069,13 @@
         <v>903</v>
       </c>
       <c r="M235" t="s">
+        <v>927</v>
+      </c>
+      <c r="N235" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1">
+    <row r="236" spans="1:14">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -29605,10 +30111,13 @@
         <v>903</v>
       </c>
       <c r="M236" t="s">
+        <v>927</v>
+      </c>
+      <c r="N236" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1">
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
         <v>49</v>
       </c>
@@ -29644,10 +30153,13 @@
         <v>903</v>
       </c>
       <c r="M237" t="s">
+        <v>927</v>
+      </c>
+      <c r="N237" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1">
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -29683,10 +30195,13 @@
         <v>903</v>
       </c>
       <c r="M238" t="s">
+        <v>927</v>
+      </c>
+      <c r="N238" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1">
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -29724,11 +30239,14 @@
       <c r="L239" t="s">
         <v>895</v>
       </c>
-      <c r="M239" s="1" t="s">
+      <c r="M239" t="s">
+        <v>930</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -29766,11 +30284,14 @@
       <c r="L240" t="s">
         <v>895</v>
       </c>
-      <c r="M240" s="1" t="s">
+      <c r="M240" t="s">
+        <v>930</v>
+      </c>
+      <c r="N240" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1">
+    <row r="241" spans="1:14">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -29808,11 +30329,14 @@
       <c r="L241" t="s">
         <v>895</v>
       </c>
-      <c r="M241" s="1" t="s">
+      <c r="M241" t="s">
+        <v>930</v>
+      </c>
+      <c r="N241" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:14">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -29850,11 +30374,14 @@
       <c r="L242" t="s">
         <v>895</v>
       </c>
-      <c r="M242" s="1" t="s">
+      <c r="M242" t="s">
+        <v>930</v>
+      </c>
+      <c r="N242" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1">
+    <row r="243" spans="1:14">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -29892,11 +30419,14 @@
       <c r="L243" t="s">
         <v>895</v>
       </c>
-      <c r="M243" s="1" t="s">
+      <c r="M243" t="s">
+        <v>930</v>
+      </c>
+      <c r="N243" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1">
+    <row r="244" spans="1:14" hidden="1">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -29931,11 +30461,11 @@
       <c r="L244" t="s">
         <v>895</v>
       </c>
-      <c r="M244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1">
+    <row r="245" spans="1:14" hidden="1">
       <c r="A245" t="s">
         <v>32</v>
       </c>
@@ -29970,11 +30500,11 @@
       <c r="L245" t="s">
         <v>895</v>
       </c>
-      <c r="M245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1">
+    <row r="246" spans="1:14" hidden="1">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -30009,11 +30539,11 @@
       <c r="L246" t="s">
         <v>895</v>
       </c>
-      <c r="M246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1">
+    <row r="247" spans="1:14" hidden="1">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -30048,11 +30578,11 @@
       <c r="L247" t="s">
         <v>895</v>
       </c>
-      <c r="M247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:14" hidden="1">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -30087,11 +30617,11 @@
       <c r="L248" t="s">
         <v>895</v>
       </c>
-      <c r="M248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:14" hidden="1">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -30126,11 +30656,11 @@
       <c r="L249" t="s">
         <v>895</v>
       </c>
-      <c r="M249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1">
+    <row r="250" spans="1:14">
       <c r="A250" t="s">
         <v>50</v>
       </c>
@@ -30165,11 +30695,14 @@
       <c r="L250" t="s">
         <v>913</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N250" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:14">
       <c r="A251" t="s">
         <v>50</v>
       </c>
@@ -30204,11 +30737,14 @@
       <c r="L251" t="s">
         <v>913</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N251" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1">
+    <row r="252" spans="1:14">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -30243,11 +30779,14 @@
       <c r="L252" t="s">
         <v>913</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N252" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1">
+    <row r="253" spans="1:14">
       <c r="A253" t="s">
         <v>50</v>
       </c>
@@ -30282,11 +30821,14 @@
       <c r="L253" t="s">
         <v>913</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N253" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1">
+    <row r="254" spans="1:14">
       <c r="A254" t="s">
         <v>50</v>
       </c>
@@ -30321,11 +30863,14 @@
       <c r="L254" t="s">
         <v>913</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N254" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1">
+    <row r="255" spans="1:14" hidden="1">
       <c r="A255" t="s">
         <v>50</v>
       </c>
@@ -30355,7 +30900,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1">
+    <row r="256" spans="1:14" hidden="1">
       <c r="A256" t="s">
         <v>50</v>
       </c>
@@ -30385,7 +30930,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1">
+    <row r="257" spans="1:14" hidden="1">
       <c r="A257" t="s">
         <v>50</v>
       </c>
@@ -30415,7 +30960,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1">
+    <row r="258" spans="1:14" hidden="1">
       <c r="A258" t="s">
         <v>50</v>
       </c>
@@ -30445,7 +30990,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1">
+    <row r="259" spans="1:14" hidden="1">
       <c r="A259" t="s">
         <v>50</v>
       </c>
@@ -30475,7 +31020,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1">
+    <row r="260" spans="1:14" hidden="1">
       <c r="A260" t="s">
         <v>50</v>
       </c>
@@ -30505,7 +31050,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1">
+    <row r="261" spans="1:14">
       <c r="A261" t="s">
         <v>51</v>
       </c>
@@ -30540,11 +31085,14 @@
       <c r="L261" t="s">
         <v>913</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N261" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:14">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -30579,11 +31127,14 @@
       <c r="L262" t="s">
         <v>913</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N262" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1">
+    <row r="263" spans="1:14">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -30618,11 +31169,14 @@
       <c r="L263" t="s">
         <v>913</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N263" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1">
+    <row r="264" spans="1:14">
       <c r="A264" t="s">
         <v>51</v>
       </c>
@@ -30657,11 +31211,14 @@
       <c r="L264" t="s">
         <v>913</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N264" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1">
+    <row r="265" spans="1:14">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -30696,11 +31253,14 @@
       <c r="L265" t="s">
         <v>913</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="N265" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1">
+    <row r="266" spans="1:14" hidden="1">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -30730,7 +31290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1">
+    <row r="267" spans="1:14" hidden="1">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -30760,7 +31320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1">
+    <row r="268" spans="1:14" hidden="1">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -30790,7 +31350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1">
+    <row r="269" spans="1:14" hidden="1">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -30820,7 +31380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1">
+    <row r="270" spans="1:14" hidden="1">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -30850,7 +31410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1">
+    <row r="271" spans="1:14" hidden="1">
       <c r="A271" t="s">
         <v>51</v>
       </c>
@@ -30880,7 +31440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1">
+    <row r="272" spans="1:14">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -30918,11 +31478,14 @@
       <c r="L272" t="s">
         <v>895</v>
       </c>
-      <c r="M272" s="1" t="s">
+      <c r="M272" t="s">
+        <v>930</v>
+      </c>
+      <c r="N272" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:14">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -30960,11 +31523,14 @@
       <c r="L273" t="s">
         <v>895</v>
       </c>
-      <c r="M273" s="1" t="s">
+      <c r="M273" t="s">
+        <v>930</v>
+      </c>
+      <c r="N273" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1">
+    <row r="274" spans="1:14">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -31002,11 +31568,14 @@
       <c r="L274" t="s">
         <v>895</v>
       </c>
-      <c r="M274" s="1" t="s">
+      <c r="M274" t="s">
+        <v>930</v>
+      </c>
+      <c r="N274" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1">
+    <row r="275" spans="1:14">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -31044,11 +31613,14 @@
       <c r="L275" t="s">
         <v>895</v>
       </c>
-      <c r="M275" s="1" t="s">
+      <c r="M275" t="s">
+        <v>930</v>
+      </c>
+      <c r="N275" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1">
+    <row r="276" spans="1:14">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -31086,11 +31658,14 @@
       <c r="L276" t="s">
         <v>895</v>
       </c>
-      <c r="M276" s="1" t="s">
+      <c r="M276" t="s">
+        <v>930</v>
+      </c>
+      <c r="N276" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1">
+    <row r="277" spans="1:14" hidden="1">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -31125,11 +31700,11 @@
       <c r="L277" t="s">
         <v>895</v>
       </c>
-      <c r="M277" s="1" t="s">
+      <c r="N277" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1">
+    <row r="278" spans="1:14" hidden="1">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -31164,11 +31739,11 @@
       <c r="L278" t="s">
         <v>895</v>
       </c>
-      <c r="M278" s="1" t="s">
+      <c r="N278" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1">
+    <row r="279" spans="1:14" hidden="1">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -31203,11 +31778,11 @@
       <c r="L279" t="s">
         <v>895</v>
       </c>
-      <c r="M279" s="1" t="s">
+      <c r="N279" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1">
+    <row r="280" spans="1:14" hidden="1">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -31242,11 +31817,11 @@
       <c r="L280" t="s">
         <v>895</v>
       </c>
-      <c r="M280" s="1" t="s">
+      <c r="N280" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1">
+    <row r="281" spans="1:14" hidden="1">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -31281,11 +31856,11 @@
       <c r="L281" t="s">
         <v>895</v>
       </c>
-      <c r="M281" s="1" t="s">
+      <c r="N281" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1">
+    <row r="282" spans="1:14" hidden="1">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -31320,11 +31895,11 @@
       <c r="L282" t="s">
         <v>895</v>
       </c>
-      <c r="M282" s="1" t="s">
+      <c r="N282" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1">
+    <row r="283" spans="1:14">
       <c r="A283" t="s">
         <v>52</v>
       </c>
@@ -31359,11 +31934,14 @@
       <c r="L283" t="s">
         <v>915</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N283" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:14">
       <c r="A284" t="s">
         <v>52</v>
       </c>
@@ -31398,11 +31976,14 @@
       <c r="L284" t="s">
         <v>915</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N284" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1">
+    <row r="285" spans="1:14">
       <c r="A285" t="s">
         <v>52</v>
       </c>
@@ -31437,11 +32018,14 @@
       <c r="L285" t="s">
         <v>915</v>
       </c>
-      <c r="M285" t="s">
+      <c r="M285" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N285" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1">
+    <row r="286" spans="1:14">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -31476,11 +32060,14 @@
       <c r="L286" t="s">
         <v>915</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N286" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1">
+    <row r="287" spans="1:14">
       <c r="A287" t="s">
         <v>52</v>
       </c>
@@ -31515,11 +32102,14 @@
       <c r="L287" t="s">
         <v>915</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N287" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1">
+    <row r="288" spans="1:14" hidden="1">
       <c r="A288" t="s">
         <v>52</v>
       </c>
@@ -31549,7 +32139,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1">
+    <row r="289" spans="1:14" hidden="1">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -31579,7 +32169,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1">
+    <row r="290" spans="1:14" hidden="1">
       <c r="A290" t="s">
         <v>52</v>
       </c>
@@ -31609,7 +32199,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1">
+    <row r="291" spans="1:14" hidden="1">
       <c r="A291" t="s">
         <v>52</v>
       </c>
@@ -31639,7 +32229,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1">
+    <row r="292" spans="1:14" hidden="1">
       <c r="A292" t="s">
         <v>52</v>
       </c>
@@ -31669,7 +32259,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1">
+    <row r="293" spans="1:14" hidden="1">
       <c r="A293" t="s">
         <v>52</v>
       </c>
@@ -31699,7 +32289,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1">
+    <row r="294" spans="1:14">
       <c r="A294" t="s">
         <v>53</v>
       </c>
@@ -31734,11 +32324,14 @@
       <c r="L294" t="s">
         <v>915</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N294" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:14">
       <c r="A295" t="s">
         <v>53</v>
       </c>
@@ -31773,11 +32366,14 @@
       <c r="L295" t="s">
         <v>915</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N295" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1">
+    <row r="296" spans="1:14">
       <c r="A296" t="s">
         <v>53</v>
       </c>
@@ -31812,11 +32408,14 @@
       <c r="L296" t="s">
         <v>915</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N296" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1">
+    <row r="297" spans="1:14">
       <c r="A297" t="s">
         <v>53</v>
       </c>
@@ -31851,11 +32450,14 @@
       <c r="L297" t="s">
         <v>915</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N297" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1">
+    <row r="298" spans="1:14">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -31890,11 +32492,14 @@
       <c r="L298" t="s">
         <v>915</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="N298" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1">
+    <row r="299" spans="1:14" hidden="1">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -31924,7 +32529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1">
+    <row r="300" spans="1:14" hidden="1">
       <c r="A300" t="s">
         <v>53</v>
       </c>
@@ -31954,7 +32559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1">
+    <row r="301" spans="1:14" hidden="1">
       <c r="A301" t="s">
         <v>53</v>
       </c>
@@ -31984,7 +32589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1">
+    <row r="302" spans="1:14" hidden="1">
       <c r="A302" t="s">
         <v>53</v>
       </c>
@@ -32014,7 +32619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1">
+    <row r="303" spans="1:14" hidden="1">
       <c r="A303" t="s">
         <v>53</v>
       </c>
@@ -32044,7 +32649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1">
+    <row r="304" spans="1:14" hidden="1">
       <c r="A304" t="s">
         <v>53</v>
       </c>
@@ -32074,7 +32679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1">
+    <row r="305" spans="1:14">
       <c r="A305" t="s">
         <v>1</v>
       </c>
@@ -32112,11 +32717,14 @@
       <c r="L305" t="s">
         <v>895</v>
       </c>
-      <c r="M305" s="1" t="s">
+      <c r="M305" t="s">
+        <v>930</v>
+      </c>
+      <c r="N305" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:14">
       <c r="A306" t="s">
         <v>1</v>
       </c>
@@ -32154,11 +32762,14 @@
       <c r="L306" t="s">
         <v>895</v>
       </c>
-      <c r="M306" s="1" t="s">
+      <c r="M306" t="s">
+        <v>930</v>
+      </c>
+      <c r="N306" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1">
+    <row r="307" spans="1:14">
       <c r="A307" t="s">
         <v>1</v>
       </c>
@@ -32196,11 +32807,14 @@
       <c r="L307" t="s">
         <v>895</v>
       </c>
-      <c r="M307" s="1" t="s">
+      <c r="M307" t="s">
+        <v>930</v>
+      </c>
+      <c r="N307" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1">
+    <row r="308" spans="1:14">
       <c r="A308" t="s">
         <v>1</v>
       </c>
@@ -32238,11 +32852,14 @@
       <c r="L308" t="s">
         <v>895</v>
       </c>
-      <c r="M308" s="1" t="s">
+      <c r="M308" t="s">
+        <v>930</v>
+      </c>
+      <c r="N308" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1">
+    <row r="309" spans="1:14">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -32280,11 +32897,14 @@
       <c r="L309" t="s">
         <v>895</v>
       </c>
-      <c r="M309" s="1" t="s">
+      <c r="M309" t="s">
+        <v>930</v>
+      </c>
+      <c r="N309" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1">
+    <row r="310" spans="1:14">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -32322,11 +32942,14 @@
       <c r="L310" t="s">
         <v>895</v>
       </c>
-      <c r="M310" s="1" t="s">
+      <c r="M310" t="s">
+        <v>930</v>
+      </c>
+      <c r="N310" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1">
+    <row r="311" spans="1:14">
       <c r="A311" t="s">
         <v>1</v>
       </c>
@@ -32364,11 +32987,14 @@
       <c r="L311" t="s">
         <v>895</v>
       </c>
-      <c r="M311" s="1" t="s">
+      <c r="M311" t="s">
+        <v>930</v>
+      </c>
+      <c r="N311" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1">
+    <row r="312" spans="1:14">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -32406,11 +33032,14 @@
       <c r="L312" t="s">
         <v>895</v>
       </c>
-      <c r="M312" s="1" t="s">
+      <c r="M312" t="s">
+        <v>930</v>
+      </c>
+      <c r="N312" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1">
+    <row r="313" spans="1:14" hidden="1">
       <c r="A313" t="s">
         <v>1</v>
       </c>
@@ -32445,11 +33074,11 @@
       <c r="L313" t="s">
         <v>895</v>
       </c>
-      <c r="M313" s="1" t="s">
+      <c r="N313" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1">
+    <row r="314" spans="1:14" hidden="1">
       <c r="A314" t="s">
         <v>1</v>
       </c>
@@ -32484,11 +33113,11 @@
       <c r="L314" t="s">
         <v>895</v>
       </c>
-      <c r="M314" s="1" t="s">
+      <c r="N314" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="315" spans="1:13" hidden="1">
+    <row r="315" spans="1:14" ht="195">
       <c r="A315" t="s">
         <v>54</v>
       </c>
@@ -32523,11 +33152,14 @@
       <c r="L315" t="s">
         <v>917</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M315" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N315" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:14" ht="195">
       <c r="A316" t="s">
         <v>54</v>
       </c>
@@ -32562,11 +33194,14 @@
       <c r="L316" t="s">
         <v>917</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M316" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N316" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1">
+    <row r="317" spans="1:14" ht="195">
       <c r="A317" t="s">
         <v>54</v>
       </c>
@@ -32601,11 +33236,14 @@
       <c r="L317" t="s">
         <v>917</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M317" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N317" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1">
+    <row r="318" spans="1:14" ht="195">
       <c r="A318" t="s">
         <v>54</v>
       </c>
@@ -32640,11 +33278,14 @@
       <c r="L318" t="s">
         <v>917</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M318" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N318" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1">
+    <row r="319" spans="1:14" ht="195">
       <c r="A319" t="s">
         <v>54</v>
       </c>
@@ -32679,11 +33320,14 @@
       <c r="L319" t="s">
         <v>917</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M319" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N319" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1">
+    <row r="320" spans="1:14" ht="195">
       <c r="A320" t="s">
         <v>54</v>
       </c>
@@ -32718,11 +33362,14 @@
       <c r="L320" t="s">
         <v>917</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M320" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N320" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1">
+    <row r="321" spans="1:14" ht="195">
       <c r="A321" t="s">
         <v>54</v>
       </c>
@@ -32757,11 +33404,14 @@
       <c r="L321" t="s">
         <v>917</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M321" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N321" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1">
+    <row r="322" spans="1:14" ht="195">
       <c r="A322" t="s">
         <v>54</v>
       </c>
@@ -32796,11 +33446,14 @@
       <c r="L322" t="s">
         <v>917</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M322" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N322" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1">
+    <row r="323" spans="1:14" hidden="1">
       <c r="A323" t="s">
         <v>54</v>
       </c>
@@ -32830,7 +33483,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1">
+    <row r="324" spans="1:14" hidden="1">
       <c r="A324" t="s">
         <v>54</v>
       </c>
@@ -32860,7 +33513,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1">
+    <row r="325" spans="1:14" ht="195">
       <c r="A325" t="s">
         <v>56</v>
       </c>
@@ -32895,11 +33548,14 @@
       <c r="L325" t="s">
         <v>917</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M325" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N325" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:14" ht="195">
       <c r="A326" t="s">
         <v>56</v>
       </c>
@@ -32934,11 +33590,14 @@
       <c r="L326" t="s">
         <v>917</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M326" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N326" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1">
+    <row r="327" spans="1:14" ht="195">
       <c r="A327" t="s">
         <v>56</v>
       </c>
@@ -32973,11 +33632,14 @@
       <c r="L327" t="s">
         <v>917</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M327" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N327" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1">
+    <row r="328" spans="1:14" ht="195">
       <c r="A328" t="s">
         <v>56</v>
       </c>
@@ -33012,11 +33674,14 @@
       <c r="L328" t="s">
         <v>917</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M328" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N328" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1">
+    <row r="329" spans="1:14" ht="195">
       <c r="A329" t="s">
         <v>56</v>
       </c>
@@ -33051,11 +33716,14 @@
       <c r="L329" t="s">
         <v>917</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M329" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N329" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1">
+    <row r="330" spans="1:14" ht="195">
       <c r="A330" t="s">
         <v>56</v>
       </c>
@@ -33090,11 +33758,14 @@
       <c r="L330" t="s">
         <v>917</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M330" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N330" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1">
+    <row r="331" spans="1:14" ht="195">
       <c r="A331" t="s">
         <v>56</v>
       </c>
@@ -33129,11 +33800,14 @@
       <c r="L331" t="s">
         <v>917</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M331" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N331" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1">
+    <row r="332" spans="1:14" ht="195">
       <c r="A332" t="s">
         <v>56</v>
       </c>
@@ -33168,11 +33842,14 @@
       <c r="L332" t="s">
         <v>917</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M332" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="N332" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1">
+    <row r="333" spans="1:14" hidden="1">
       <c r="A333" t="s">
         <v>56</v>
       </c>
@@ -33202,7 +33879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1">
+    <row r="334" spans="1:14" hidden="1">
       <c r="A334" t="s">
         <v>55</v>
       </c>
@@ -33232,7 +33909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1">
+    <row r="335" spans="1:14">
       <c r="A335" t="s">
         <v>32</v>
       </c>
@@ -33270,11 +33947,14 @@
       <c r="L335" t="s">
         <v>895</v>
       </c>
-      <c r="M335" s="1" t="s">
+      <c r="M335" t="s">
+        <v>930</v>
+      </c>
+      <c r="N335" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:14">
       <c r="A336" t="s">
         <v>1</v>
       </c>
@@ -33312,11 +33992,14 @@
       <c r="L336" t="s">
         <v>895</v>
       </c>
-      <c r="M336" s="1" t="s">
+      <c r="M336" t="s">
+        <v>930</v>
+      </c>
+      <c r="N336" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1">
+    <row r="337" spans="1:14">
       <c r="A337" t="s">
         <v>1</v>
       </c>
@@ -33354,11 +34037,14 @@
       <c r="L337" t="s">
         <v>895</v>
       </c>
-      <c r="M337" s="1" t="s">
+      <c r="M337" t="s">
+        <v>930</v>
+      </c>
+      <c r="N337" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1">
+    <row r="338" spans="1:14">
       <c r="A338" t="s">
         <v>1</v>
       </c>
@@ -33396,11 +34082,14 @@
       <c r="L338" t="s">
         <v>895</v>
       </c>
-      <c r="M338" s="1" t="s">
+      <c r="M338" t="s">
+        <v>930</v>
+      </c>
+      <c r="N338" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1">
+    <row r="339" spans="1:14">
       <c r="A339" t="s">
         <v>1</v>
       </c>
@@ -33438,11 +34127,14 @@
       <c r="L339" t="s">
         <v>895</v>
       </c>
-      <c r="M339" s="1" t="s">
+      <c r="M339" t="s">
+        <v>930</v>
+      </c>
+      <c r="N339" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1">
+    <row r="340" spans="1:14">
       <c r="A340" t="s">
         <v>1</v>
       </c>
@@ -33480,11 +34172,14 @@
       <c r="L340" t="s">
         <v>895</v>
       </c>
-      <c r="M340" s="1" t="s">
+      <c r="M340" t="s">
+        <v>930</v>
+      </c>
+      <c r="N340" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1">
+    <row r="341" spans="1:14">
       <c r="A341" t="s">
         <v>1</v>
       </c>
@@ -33522,11 +34217,14 @@
       <c r="L341" t="s">
         <v>895</v>
       </c>
-      <c r="M341" s="1" t="s">
+      <c r="M341" t="s">
+        <v>930</v>
+      </c>
+      <c r="N341" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1">
+    <row r="342" spans="1:14">
       <c r="A342" t="s">
         <v>1</v>
       </c>
@@ -33564,11 +34262,14 @@
       <c r="L342" t="s">
         <v>895</v>
       </c>
-      <c r="M342" s="1" t="s">
+      <c r="M342" t="s">
+        <v>930</v>
+      </c>
+      <c r="N342" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1">
+    <row r="343" spans="1:14" hidden="1">
       <c r="A343" t="s">
         <v>1</v>
       </c>
@@ -33603,11 +34304,11 @@
       <c r="L343" t="s">
         <v>895</v>
       </c>
-      <c r="M343" s="1" t="s">
+      <c r="N343" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1">
+    <row r="344" spans="1:14" hidden="1">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -33642,11 +34343,11 @@
       <c r="L344" t="s">
         <v>895</v>
       </c>
-      <c r="M344" s="1" t="s">
+      <c r="N344" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1">
+    <row r="345" spans="1:14" hidden="1">
       <c r="A345" t="s">
         <v>1</v>
       </c>
@@ -33681,11 +34382,11 @@
       <c r="L345" t="s">
         <v>895</v>
       </c>
-      <c r="M345" s="1" t="s">
+      <c r="N345" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1">
+    <row r="346" spans="1:14" hidden="1">
       <c r="A346" t="s">
         <v>1</v>
       </c>
@@ -33720,11 +34421,11 @@
       <c r="L346" t="s">
         <v>895</v>
       </c>
-      <c r="M346" s="1" t="s">
+      <c r="N346" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1">
+    <row r="347" spans="1:14" hidden="1">
       <c r="A347" t="s">
         <v>1</v>
       </c>
@@ -33759,11 +34460,11 @@
       <c r="L347" t="s">
         <v>895</v>
       </c>
-      <c r="M347" s="1" t="s">
+      <c r="N347" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1">
+    <row r="348" spans="1:14" hidden="1">
       <c r="A348" t="s">
         <v>1</v>
       </c>
@@ -33798,11 +34499,11 @@
       <c r="L348" t="s">
         <v>895</v>
       </c>
-      <c r="M348" s="1" t="s">
+      <c r="N348" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1">
+    <row r="349" spans="1:14">
       <c r="A349" t="s">
         <v>58</v>
       </c>
@@ -33837,11 +34538,14 @@
       <c r="L349" t="s">
         <v>919</v>
       </c>
-      <c r="M349" t="s">
+      <c r="M349" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N349" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:14">
       <c r="A350" t="s">
         <v>58</v>
       </c>
@@ -33876,11 +34580,14 @@
       <c r="L350" t="s">
         <v>919</v>
       </c>
-      <c r="M350" t="s">
+      <c r="M350" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N350" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1">
+    <row r="351" spans="1:14">
       <c r="A351" t="s">
         <v>58</v>
       </c>
@@ -33915,11 +34622,14 @@
       <c r="L351" t="s">
         <v>919</v>
       </c>
-      <c r="M351" t="s">
+      <c r="M351" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N351" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1">
+    <row r="352" spans="1:14">
       <c r="A352" t="s">
         <v>58</v>
       </c>
@@ -33954,11 +34664,14 @@
       <c r="L352" t="s">
         <v>919</v>
       </c>
-      <c r="M352" t="s">
+      <c r="M352" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N352" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="353" spans="1:13" hidden="1">
+    <row r="353" spans="1:14">
       <c r="A353" t="s">
         <v>58</v>
       </c>
@@ -33993,11 +34706,14 @@
       <c r="L353" t="s">
         <v>919</v>
       </c>
-      <c r="M353" t="s">
+      <c r="M353" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N353" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1">
+    <row r="354" spans="1:14">
       <c r="A354" t="s">
         <v>58</v>
       </c>
@@ -34032,11 +34748,14 @@
       <c r="L354" t="s">
         <v>919</v>
       </c>
-      <c r="M354" t="s">
+      <c r="M354" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N354" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1">
+    <row r="355" spans="1:14">
       <c r="A355" t="s">
         <v>58</v>
       </c>
@@ -34071,11 +34790,14 @@
       <c r="L355" t="s">
         <v>919</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M355" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N355" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1">
+    <row r="356" spans="1:14">
       <c r="A356" t="s">
         <v>58</v>
       </c>
@@ -34110,11 +34832,14 @@
       <c r="L356" t="s">
         <v>919</v>
       </c>
-      <c r="M356" t="s">
+      <c r="M356" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N356" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1">
+    <row r="357" spans="1:14" hidden="1">
       <c r="A357" t="s">
         <v>58</v>
       </c>
@@ -34144,7 +34869,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="358" spans="1:13" hidden="1">
+    <row r="358" spans="1:14" hidden="1">
       <c r="A358" t="s">
         <v>58</v>
       </c>
@@ -34174,7 +34899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1">
+    <row r="359" spans="1:14" hidden="1">
       <c r="A359" t="s">
         <v>58</v>
       </c>
@@ -34204,7 +34929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1">
+    <row r="360" spans="1:14" hidden="1">
       <c r="A360" t="s">
         <v>58</v>
       </c>
@@ -34234,7 +34959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1">
+    <row r="361" spans="1:14" hidden="1">
       <c r="A361" t="s">
         <v>58</v>
       </c>
@@ -34264,7 +34989,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1">
+    <row r="362" spans="1:14" hidden="1">
       <c r="A362" t="s">
         <v>58</v>
       </c>
@@ -34294,7 +35019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1">
+    <row r="363" spans="1:14">
       <c r="A363" t="s">
         <v>59</v>
       </c>
@@ -34329,11 +35054,14 @@
       <c r="L363" t="s">
         <v>919</v>
       </c>
-      <c r="M363" t="s">
+      <c r="M363" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N363" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:14">
       <c r="A364" t="s">
         <v>59</v>
       </c>
@@ -34368,11 +35096,14 @@
       <c r="L364" t="s">
         <v>919</v>
       </c>
-      <c r="M364" t="s">
+      <c r="M364" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N364" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1">
+    <row r="365" spans="1:14">
       <c r="A365" t="s">
         <v>59</v>
       </c>
@@ -34407,11 +35138,14 @@
       <c r="L365" t="s">
         <v>919</v>
       </c>
-      <c r="M365" t="s">
+      <c r="M365" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N365" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1">
+    <row r="366" spans="1:14">
       <c r="A366" t="s">
         <v>59</v>
       </c>
@@ -34446,11 +35180,14 @@
       <c r="L366" t="s">
         <v>919</v>
       </c>
-      <c r="M366" t="s">
+      <c r="M366" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N366" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1">
+    <row r="367" spans="1:14">
       <c r="A367" t="s">
         <v>59</v>
       </c>
@@ -34485,11 +35222,14 @@
       <c r="L367" t="s">
         <v>919</v>
       </c>
-      <c r="M367" t="s">
+      <c r="M367" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N367" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1">
+    <row r="368" spans="1:14">
       <c r="A368" t="s">
         <v>59</v>
       </c>
@@ -34524,11 +35264,14 @@
       <c r="L368" t="s">
         <v>919</v>
       </c>
-      <c r="M368" t="s">
+      <c r="M368" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N368" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1">
+    <row r="369" spans="1:14">
       <c r="A369" t="s">
         <v>59</v>
       </c>
@@ -34563,11 +35306,14 @@
       <c r="L369" t="s">
         <v>919</v>
       </c>
-      <c r="M369" t="s">
+      <c r="M369" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N369" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1">
+    <row r="370" spans="1:14">
       <c r="A370" t="s">
         <v>59</v>
       </c>
@@ -34602,11 +35348,14 @@
       <c r="L370" t="s">
         <v>919</v>
       </c>
-      <c r="M370" t="s">
+      <c r="M370" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="N370" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1">
+    <row r="371" spans="1:14" hidden="1">
       <c r="A371" t="s">
         <v>59</v>
       </c>
@@ -34636,7 +35385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1">
+    <row r="372" spans="1:14" hidden="1">
       <c r="A372" t="s">
         <v>59</v>
       </c>
@@ -34666,7 +35415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1">
+    <row r="373" spans="1:14" hidden="1">
       <c r="A373" t="s">
         <v>59</v>
       </c>
@@ -34696,7 +35445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1">
+    <row r="374" spans="1:14" hidden="1">
       <c r="A374" t="s">
         <v>59</v>
       </c>
@@ -34726,7 +35475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1">
+    <row r="375" spans="1:14" hidden="1">
       <c r="A375" t="s">
         <v>59</v>
       </c>
@@ -34756,7 +35505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1">
+    <row r="376" spans="1:14" hidden="1">
       <c r="A376" t="s">
         <v>59</v>
       </c>
@@ -34786,7 +35535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1">
+    <row r="377" spans="1:14">
       <c r="A377" t="s">
         <v>32</v>
       </c>
@@ -34824,11 +35573,14 @@
       <c r="L377" t="s">
         <v>895</v>
       </c>
-      <c r="M377" s="1" t="s">
+      <c r="M377" t="s">
+        <v>930</v>
+      </c>
+      <c r="N377" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:14">
       <c r="A378" t="s">
         <v>1</v>
       </c>
@@ -34866,11 +35618,14 @@
       <c r="L378" t="s">
         <v>895</v>
       </c>
-      <c r="M378" s="1" t="s">
+      <c r="M378" t="s">
+        <v>930</v>
+      </c>
+      <c r="N378" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1">
+    <row r="379" spans="1:14">
       <c r="A379" t="s">
         <v>1</v>
       </c>
@@ -34908,11 +35663,14 @@
       <c r="L379" t="s">
         <v>895</v>
       </c>
-      <c r="M379" s="1" t="s">
+      <c r="M379" t="s">
+        <v>930</v>
+      </c>
+      <c r="N379" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1">
+    <row r="380" spans="1:14">
       <c r="A380" t="s">
         <v>1</v>
       </c>
@@ -34950,11 +35708,14 @@
       <c r="L380" t="s">
         <v>895</v>
       </c>
-      <c r="M380" s="1" t="s">
+      <c r="M380" t="s">
+        <v>930</v>
+      </c>
+      <c r="N380" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1">
+    <row r="381" spans="1:14">
       <c r="A381" t="s">
         <v>1</v>
       </c>
@@ -34992,11 +35753,14 @@
       <c r="L381" t="s">
         <v>895</v>
       </c>
-      <c r="M381" s="1" t="s">
+      <c r="M381" t="s">
+        <v>930</v>
+      </c>
+      <c r="N381" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1">
+    <row r="382" spans="1:14" hidden="1">
       <c r="A382" t="s">
         <v>1</v>
       </c>
@@ -35031,11 +35795,11 @@
       <c r="L382" t="s">
         <v>895</v>
       </c>
-      <c r="M382" s="1" t="s">
+      <c r="N382" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1">
+    <row r="383" spans="1:14" hidden="1">
       <c r="A383" t="s">
         <v>32</v>
       </c>
@@ -35070,11 +35834,11 @@
       <c r="L383" t="s">
         <v>895</v>
       </c>
-      <c r="M383" s="1" t="s">
+      <c r="N383" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1">
+    <row r="384" spans="1:14" hidden="1">
       <c r="A384" t="s">
         <v>1</v>
       </c>
@@ -35109,11 +35873,11 @@
       <c r="L384" t="s">
         <v>895</v>
       </c>
-      <c r="M384" s="1" t="s">
+      <c r="N384" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1">
+    <row r="385" spans="1:14" hidden="1">
       <c r="A385" t="s">
         <v>1</v>
       </c>
@@ -35148,11 +35912,11 @@
       <c r="L385" t="s">
         <v>895</v>
       </c>
-      <c r="M385" s="1" t="s">
+      <c r="N385" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1">
+    <row r="386" spans="1:14" hidden="1">
       <c r="A386" t="s">
         <v>1</v>
       </c>
@@ -35187,11 +35951,11 @@
       <c r="L386" t="s">
         <v>895</v>
       </c>
-      <c r="M386" s="1" t="s">
+      <c r="N386" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="387" spans="1:13" hidden="1">
+    <row r="387" spans="1:14" hidden="1">
       <c r="A387" t="s">
         <v>1</v>
       </c>
@@ -35226,11 +35990,11 @@
       <c r="L387" t="s">
         <v>895</v>
       </c>
-      <c r="M387" s="1" t="s">
+      <c r="N387" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1">
+    <row r="388" spans="1:14">
       <c r="A388" t="s">
         <v>60</v>
       </c>
@@ -35265,11 +36029,14 @@
       <c r="L388" t="s">
         <v>921</v>
       </c>
-      <c r="M388" t="s">
+      <c r="M388" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N388" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:14">
       <c r="A389" t="s">
         <v>60</v>
       </c>
@@ -35304,11 +36071,14 @@
       <c r="L389" t="s">
         <v>921</v>
       </c>
-      <c r="M389" t="s">
+      <c r="M389" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N389" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1">
+    <row r="390" spans="1:14">
       <c r="A390" t="s">
         <v>60</v>
       </c>
@@ -35343,11 +36113,14 @@
       <c r="L390" t="s">
         <v>921</v>
       </c>
-      <c r="M390" t="s">
+      <c r="M390" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N390" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1">
+    <row r="391" spans="1:14">
       <c r="A391" t="s">
         <v>60</v>
       </c>
@@ -35382,11 +36155,14 @@
       <c r="L391" t="s">
         <v>921</v>
       </c>
-      <c r="M391" t="s">
+      <c r="M391" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N391" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="392" spans="1:13" hidden="1">
+    <row r="392" spans="1:14">
       <c r="A392" t="s">
         <v>60</v>
       </c>
@@ -35421,11 +36197,14 @@
       <c r="L392" t="s">
         <v>921</v>
       </c>
-      <c r="M392" t="s">
+      <c r="M392" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N392" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1">
+    <row r="393" spans="1:14" hidden="1">
       <c r="A393" t="s">
         <v>60</v>
       </c>
@@ -35455,7 +36234,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1">
+    <row r="394" spans="1:14" hidden="1">
       <c r="A394" t="s">
         <v>60</v>
       </c>
@@ -35485,7 +36264,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1">
+    <row r="395" spans="1:14" hidden="1">
       <c r="A395" t="s">
         <v>60</v>
       </c>
@@ -35515,7 +36294,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1">
+    <row r="396" spans="1:14" hidden="1">
       <c r="A396" t="s">
         <v>60</v>
       </c>
@@ -35545,7 +36324,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1">
+    <row r="397" spans="1:14" hidden="1">
       <c r="A397" t="s">
         <v>60</v>
       </c>
@@ -35575,7 +36354,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1">
+    <row r="398" spans="1:14" hidden="1">
       <c r="A398" t="s">
         <v>60</v>
       </c>
@@ -35605,7 +36384,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1">
+    <row r="399" spans="1:14">
       <c r="A399" t="s">
         <v>61</v>
       </c>
@@ -35640,11 +36419,14 @@
       <c r="L399" t="s">
         <v>921</v>
       </c>
-      <c r="M399" t="s">
+      <c r="M399" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N399" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:14">
       <c r="A400" t="s">
         <v>61</v>
       </c>
@@ -35679,11 +36461,14 @@
       <c r="L400" t="s">
         <v>921</v>
       </c>
-      <c r="M400" t="s">
+      <c r="M400" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N400" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1">
+    <row r="401" spans="1:14">
       <c r="A401" t="s">
         <v>61</v>
       </c>
@@ -35718,11 +36503,14 @@
       <c r="L401" t="s">
         <v>921</v>
       </c>
-      <c r="M401" t="s">
+      <c r="M401" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N401" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1">
+    <row r="402" spans="1:14">
       <c r="A402" t="s">
         <v>61</v>
       </c>
@@ -35757,11 +36545,14 @@
       <c r="L402" t="s">
         <v>921</v>
       </c>
-      <c r="M402" t="s">
+      <c r="M402" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N402" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1">
+    <row r="403" spans="1:14">
       <c r="A403" t="s">
         <v>61</v>
       </c>
@@ -35796,11 +36587,14 @@
       <c r="L403" t="s">
         <v>921</v>
       </c>
-      <c r="M403" t="s">
+      <c r="M403" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="N403" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1">
+    <row r="404" spans="1:14" hidden="1">
       <c r="A404" t="s">
         <v>61</v>
       </c>
@@ -35830,7 +36624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1">
+    <row r="405" spans="1:14" hidden="1">
       <c r="A405" t="s">
         <v>61</v>
       </c>
@@ -35860,7 +36654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1">
+    <row r="406" spans="1:14" hidden="1">
       <c r="A406" t="s">
         <v>61</v>
       </c>
@@ -35890,7 +36684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1">
+    <row r="407" spans="1:14" hidden="1">
       <c r="A407" t="s">
         <v>61</v>
       </c>
@@ -35920,7 +36714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1">
+    <row r="408" spans="1:14" hidden="1">
       <c r="A408" t="s">
         <v>61</v>
       </c>
@@ -35950,7 +36744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1">
+    <row r="409" spans="1:14" hidden="1">
       <c r="A409" t="s">
         <v>61</v>
       </c>
@@ -35982,31 +36776,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{769A0B8C-A8A1-48FF-94F3-77F257B71EC1}"/>
-    <hyperlink ref="M3:M15" r:id="rId2" display="https://www.pge.com/" xr:uid="{B2D7A309-0A77-4E55-9570-0A8FE70D8B4E}"/>
-    <hyperlink ref="M44:M52" r:id="rId3" display="https://www.pge.com/" xr:uid="{C8674C1C-9251-4F8A-901C-1A960B664D7B}"/>
-    <hyperlink ref="M71:M82" r:id="rId4" display="https://www.pge.com/" xr:uid="{B317D5FB-65DF-40DB-A8A4-5C3C3792D81D}"/>
-    <hyperlink ref="M107:M120" r:id="rId5" display="https://www.pge.com/" xr:uid="{053069B8-1ADE-4B46-AD9B-7B3F94D44381}"/>
-    <hyperlink ref="M149:M154" r:id="rId6" display="https://www.pge.com/" xr:uid="{40EE55A6-FB68-4840-9EEF-2E7E9B8CE3D4}"/>
-    <hyperlink ref="M167:M178" r:id="rId7" display="https://www.pge.com/" xr:uid="{B33B823B-E2FC-4885-9963-9EF642F7A7E6}"/>
-    <hyperlink ref="M203:M216" r:id="rId8" display="https://www.pge.com/" xr:uid="{023C6818-A9EA-48FE-9001-D9B4A30D4391}"/>
-    <hyperlink ref="M231:M234" r:id="rId9" display="https://www.pge.com/" xr:uid="{09B8ABD8-D28A-4002-9813-4180A078FDB5}"/>
-    <hyperlink ref="M239:M249" r:id="rId10" display="https://www.pge.com/" xr:uid="{AA207F35-1281-426F-8893-E19644CE78A4}"/>
-    <hyperlink ref="M272:M282" r:id="rId11" display="https://www.pge.com/" xr:uid="{C517E1D5-71FC-4434-8300-943F82444F1C}"/>
-    <hyperlink ref="M305:M314" r:id="rId12" display="https://www.pge.com/" xr:uid="{BF4A1CBA-A108-42DE-9E27-FF44858F74F4}"/>
-    <hyperlink ref="M335:M348" r:id="rId13" display="https://www.pge.com/" xr:uid="{A232D01D-7B68-42AE-928F-AC2C17E8EBCE}"/>
-    <hyperlink ref="M377:M387" r:id="rId14" display="https://www.pge.com/" xr:uid="{A28BD0A4-D9DF-4A71-ADBF-C23A1C980ABD}"/>
-    <hyperlink ref="M16" r:id="rId15" xr:uid="{D6A035BE-6B7F-49C4-A329-5DCD630F11C8}"/>
-    <hyperlink ref="M17:M24" r:id="rId16" display="https://avaenergy.org/change-my-plan/" xr:uid="{90CC1846-8386-4B81-A035-6933650BA14B}"/>
-    <hyperlink ref="M30:M38" r:id="rId17" display="https://avaenergy.org/change-my-plan/" xr:uid="{B1E17C64-4325-4E6A-A46B-51300BAAF07D}"/>
-    <hyperlink ref="M164" r:id="rId18" xr:uid="{DF566F6A-B6F0-479C-AB16-C7CBBD786181}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{769A0B8C-A8A1-48FF-94F3-77F257B71EC1}"/>
+    <hyperlink ref="N3:N15" r:id="rId2" display="https://www.pge.com/" xr:uid="{B2D7A309-0A77-4E55-9570-0A8FE70D8B4E}"/>
+    <hyperlink ref="N44:N52" r:id="rId3" display="https://www.pge.com/" xr:uid="{C8674C1C-9251-4F8A-901C-1A960B664D7B}"/>
+    <hyperlink ref="N71:N82" r:id="rId4" display="https://www.pge.com/" xr:uid="{B317D5FB-65DF-40DB-A8A4-5C3C3792D81D}"/>
+    <hyperlink ref="N107:N120" r:id="rId5" display="https://www.pge.com/" xr:uid="{053069B8-1ADE-4B46-AD9B-7B3F94D44381}"/>
+    <hyperlink ref="N149:N154" r:id="rId6" display="https://www.pge.com/" xr:uid="{40EE55A6-FB68-4840-9EEF-2E7E9B8CE3D4}"/>
+    <hyperlink ref="N167:N178" r:id="rId7" display="https://www.pge.com/" xr:uid="{B33B823B-E2FC-4885-9963-9EF642F7A7E6}"/>
+    <hyperlink ref="N203:N216" r:id="rId8" display="https://www.pge.com/" xr:uid="{023C6818-A9EA-48FE-9001-D9B4A30D4391}"/>
+    <hyperlink ref="N231:N234" r:id="rId9" display="https://www.pge.com/" xr:uid="{09B8ABD8-D28A-4002-9813-4180A078FDB5}"/>
+    <hyperlink ref="N239:N249" r:id="rId10" display="https://www.pge.com/" xr:uid="{AA207F35-1281-426F-8893-E19644CE78A4}"/>
+    <hyperlink ref="N272:N282" r:id="rId11" display="https://www.pge.com/" xr:uid="{C517E1D5-71FC-4434-8300-943F82444F1C}"/>
+    <hyperlink ref="N305:N314" r:id="rId12" display="https://www.pge.com/" xr:uid="{BF4A1CBA-A108-42DE-9E27-FF44858F74F4}"/>
+    <hyperlink ref="N335:N348" r:id="rId13" display="https://www.pge.com/" xr:uid="{A232D01D-7B68-42AE-928F-AC2C17E8EBCE}"/>
+    <hyperlink ref="N377:N387" r:id="rId14" display="https://www.pge.com/" xr:uid="{A28BD0A4-D9DF-4A71-ADBF-C23A1C980ABD}"/>
+    <hyperlink ref="N16" r:id="rId15" xr:uid="{D6A035BE-6B7F-49C4-A329-5DCD630F11C8}"/>
+    <hyperlink ref="N17:N24" r:id="rId16" display="https://avaenergy.org/change-my-plan/" xr:uid="{90CC1846-8386-4B81-A035-6933650BA14B}"/>
+    <hyperlink ref="N30:N38" r:id="rId17" display="https://avaenergy.org/change-my-plan/" xr:uid="{B1E17C64-4325-4E6A-A46B-51300BAAF07D}"/>
+    <hyperlink ref="N164" r:id="rId18" xr:uid="{DF566F6A-B6F0-479C-AB16-C7CBBD786181}"/>
     <hyperlink ref="L217" r:id="rId19" display="tel:1-877-455-2223" xr:uid="{B2565F93-BD0D-46C7-8B76-58E07F320F88}"/>
     <hyperlink ref="L218:L224" r:id="rId20" display="tel:1-877-455-2223" xr:uid="{B32F8906-A11B-47F8-8DFD-7ACBC0071E89}"/>
+    <hyperlink ref="N83" r:id="rId21" xr:uid="{DAEE8977-DA98-4574-9923-AAC7A287CC74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
